--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaurav/Documents/30DaysChallenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D366F6D-2B58-6B42-923D-34BD71217A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E553654-68E0-9D41-8E03-64E6236C26EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="0" windowWidth="27640" windowHeight="16060" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="467">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1426,6 +1426,12 @@
   </si>
   <si>
     <t xml:space="preserve">Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw </t>
+  </si>
+  <si>
+    <t>Largest rectangle in histogram</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
 </sst>
 </file>
@@ -1509,7 +1515,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1519,6 +1525,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1536,7 +1548,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1565,6 +1577,8 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1880,10 +1894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:E481"/>
+  <dimension ref="A1:F482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2502,13 +2516,13 @@
         <v>42</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
         <v>6</v>
       </c>
@@ -2518,11 +2532,12 @@
       <c r="C49" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="D49" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="14"/>
+    </row>
+    <row r="50" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
         <v>7</v>
       </c>
@@ -2530,13 +2545,13 @@
         <v>42</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
         <v>8</v>
       </c>
@@ -2544,13 +2559,15 @@
         <v>42</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+    </row>
+    <row r="52" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
         <v>9</v>
       </c>
@@ -2558,13 +2575,13 @@
         <v>42</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A53" s="12">
         <v>10</v>
       </c>
@@ -2572,622 +2589,757 @@
         <v>42</v>
       </c>
       <c r="C53" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A54" s="12">
+        <v>11</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D53" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B55" s="5"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="4"/>
-    </row>
-    <row r="56" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B56" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="D54" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="B56" s="5"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A57" s="12">
+        <v>1</v>
+      </c>
       <c r="B57" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A58" s="12">
+        <v>2</v>
+      </c>
       <c r="B58" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A59" s="12">
+        <v>3</v>
+      </c>
       <c r="B59" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C59" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="C59" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A60" s="12">
+        <v>4</v>
+      </c>
       <c r="B60" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C60" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="C60" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A61" s="12">
+        <v>5</v>
+      </c>
       <c r="B61" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A62" s="12">
+        <v>6</v>
+      </c>
       <c r="B62" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A63" s="12">
+        <v>7</v>
+      </c>
       <c r="B63" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A64" s="12">
+        <v>8</v>
+      </c>
       <c r="B64" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A65" s="12">
+        <v>9</v>
+      </c>
       <c r="B65" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A66" s="12">
+        <v>10</v>
+      </c>
       <c r="B66" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A67" s="12">
+        <v>11</v>
+      </c>
       <c r="B67" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A68" s="12">
+        <v>12</v>
+      </c>
       <c r="B68" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A69" s="12">
+        <v>13</v>
+      </c>
       <c r="B69" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A70" s="12">
+        <v>14</v>
+      </c>
       <c r="B70" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A71" s="12">
+        <v>15</v>
+      </c>
       <c r="B71" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A72" s="12">
+        <v>16</v>
+      </c>
       <c r="B72" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A73" s="12">
+        <v>17</v>
+      </c>
       <c r="B73" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A74" s="12">
+        <v>18</v>
+      </c>
       <c r="B74" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A75" s="12">
+        <v>19</v>
+      </c>
       <c r="B75" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A76" s="12">
+        <v>20</v>
+      </c>
       <c r="B76" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A77" s="12">
+        <v>21</v>
+      </c>
       <c r="B77" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A78" s="12">
+        <v>22</v>
+      </c>
       <c r="B78" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A79" s="12">
+        <v>23</v>
+      </c>
       <c r="B79" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A80" s="12">
+        <v>24</v>
+      </c>
       <c r="B80" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A81" s="12">
+        <v>25</v>
+      </c>
       <c r="B81" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A82" s="12">
+        <v>26</v>
+      </c>
       <c r="B82" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A83" s="12">
+        <v>27</v>
+      </c>
       <c r="B83" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A84" s="12">
+        <v>28</v>
+      </c>
       <c r="B84" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="85" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="E84" s="15" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A85" s="12">
+        <v>29</v>
+      </c>
       <c r="B85" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A86" s="12">
+        <v>30</v>
+      </c>
       <c r="B86" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A87" s="12">
+        <v>31</v>
+      </c>
       <c r="B87" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A88" s="12">
+        <v>32</v>
+      </c>
       <c r="B88" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A89" s="12">
+        <v>33</v>
+      </c>
       <c r="B89" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A90" s="12">
+        <v>34</v>
+      </c>
       <c r="B90" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A91" s="12">
+        <v>35</v>
+      </c>
       <c r="B91" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A92" s="12">
+        <v>36</v>
+      </c>
       <c r="B92" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A93" s="12">
+        <v>37</v>
+      </c>
       <c r="B93" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A94" s="12">
+        <v>38</v>
+      </c>
       <c r="B94" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A95" s="12">
+        <v>39</v>
+      </c>
       <c r="B95" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A96" s="12">
+        <v>40</v>
+      </c>
       <c r="B96" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A97" s="12">
+        <v>41</v>
+      </c>
       <c r="B97" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A98" s="12">
+        <v>42</v>
+      </c>
       <c r="B98" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C98" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A99" s="12">
+        <v>43</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C99" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D98" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B100" s="8"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="4"/>
-    </row>
-    <row r="101" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B101" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="D99" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="B101" s="8"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="4"/>
+    </row>
+    <row r="102" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B102" s="5" t="s">
         <v>97</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B103" s="5" t="s">
         <v>97</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B104" s="5" t="s">
         <v>97</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B105" s="5" t="s">
         <v>97</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B106" s="5" t="s">
         <v>97</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B107" s="5" t="s">
         <v>97</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B108" s="5" t="s">
         <v>97</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B109" s="5" t="s">
         <v>97</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B110" s="5" t="s">
         <v>97</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B111" s="5" t="s">
         <v>97</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B112" s="5" t="s">
         <v>97</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>4</v>
@@ -3198,7 +3350,7 @@
         <v>97</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>4</v>
@@ -3209,7 +3361,7 @@
         <v>97</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>4</v>
@@ -3220,7 +3372,7 @@
         <v>97</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>4</v>
@@ -3231,7 +3383,7 @@
         <v>97</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>4</v>
@@ -3242,7 +3394,7 @@
         <v>97</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>4</v>
@@ -3253,7 +3405,7 @@
         <v>97</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>4</v>
@@ -3264,7 +3416,7 @@
         <v>97</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>4</v>
@@ -3275,7 +3427,7 @@
         <v>97</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>4</v>
@@ -3286,7 +3438,7 @@
         <v>97</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>4</v>
@@ -3297,7 +3449,7 @@
         <v>97</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>4</v>
@@ -3308,7 +3460,7 @@
         <v>97</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>4</v>
@@ -3319,7 +3471,7 @@
         <v>97</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>4</v>
@@ -3330,7 +3482,7 @@
         <v>97</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>4</v>
@@ -3341,7 +3493,7 @@
         <v>97</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>4</v>
@@ -3352,7 +3504,7 @@
         <v>97</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>4</v>
@@ -3363,7 +3515,7 @@
         <v>97</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>4</v>
@@ -3374,7 +3526,7 @@
         <v>97</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>4</v>
@@ -3385,7 +3537,7 @@
         <v>97</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>4</v>
@@ -3396,7 +3548,7 @@
         <v>97</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>4</v>
@@ -3407,7 +3559,7 @@
         <v>97</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>4</v>
@@ -3418,7 +3570,7 @@
         <v>97</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>4</v>
@@ -3429,7 +3581,7 @@
         <v>97</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D134" s="4" t="s">
         <v>4</v>
@@ -3440,7 +3592,7 @@
         <v>97</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>4</v>
@@ -3451,33 +3603,33 @@
         <v>97</v>
       </c>
       <c r="C136" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="B137" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C137" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D136" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="138" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="C138" s="7"/>
-      <c r="D138" s="4"/>
+      <c r="D137" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="139" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B139" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D139" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C139" s="7"/>
+      <c r="D139" s="4"/>
     </row>
     <row r="140" spans="2:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B140" s="8" t="s">
         <v>134</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D140" s="4" t="s">
         <v>4</v>
@@ -3488,7 +3640,7 @@
         <v>134</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>4</v>
@@ -3499,7 +3651,7 @@
         <v>134</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D142" s="4" t="s">
         <v>4</v>
@@ -3510,7 +3662,7 @@
         <v>134</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>4</v>
@@ -3521,7 +3673,7 @@
         <v>134</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D144" s="4" t="s">
         <v>4</v>
@@ -3532,7 +3684,7 @@
         <v>134</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>4</v>
@@ -3543,7 +3695,7 @@
         <v>134</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>4</v>
@@ -3554,7 +3706,7 @@
         <v>134</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>4</v>
@@ -3565,7 +3717,7 @@
         <v>134</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>4</v>
@@ -3576,7 +3728,7 @@
         <v>134</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>4</v>
@@ -3587,7 +3739,7 @@
         <v>134</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>4</v>
@@ -3598,7 +3750,7 @@
         <v>134</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D151" s="4" t="s">
         <v>4</v>
@@ -3609,7 +3761,7 @@
         <v>134</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D152" s="4" t="s">
         <v>4</v>
@@ -3620,7 +3772,7 @@
         <v>134</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>4</v>
@@ -3631,7 +3783,7 @@
         <v>134</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D154" s="4" t="s">
         <v>4</v>
@@ -3642,7 +3794,7 @@
         <v>134</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D155" s="4" t="s">
         <v>4</v>
@@ -3653,7 +3805,7 @@
         <v>134</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>4</v>
@@ -3664,7 +3816,7 @@
         <v>134</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>4</v>
@@ -3675,7 +3827,7 @@
         <v>134</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D158" s="4" t="s">
         <v>4</v>
@@ -3686,7 +3838,7 @@
         <v>134</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D159" s="4" t="s">
         <v>4</v>
@@ -3697,7 +3849,7 @@
         <v>134</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D160" s="4" t="s">
         <v>4</v>
@@ -3708,7 +3860,7 @@
         <v>134</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D161" s="4" t="s">
         <v>4</v>
@@ -3719,7 +3871,7 @@
         <v>134</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D162" s="4" t="s">
         <v>4</v>
@@ -3730,7 +3882,7 @@
         <v>134</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>4</v>
@@ -3740,8 +3892,8 @@
       <c r="B164" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C164" s="7" t="s">
-        <v>160</v>
+      <c r="C164" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>4</v>
@@ -3752,7 +3904,7 @@
         <v>134</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D165" s="4" t="s">
         <v>4</v>
@@ -3762,8 +3914,8 @@
       <c r="B166" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C166" s="6" t="s">
-        <v>162</v>
+      <c r="C166" s="7" t="s">
+        <v>161</v>
       </c>
       <c r="D166" s="4" t="s">
         <v>4</v>
@@ -3774,7 +3926,7 @@
         <v>134</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D167" s="4" t="s">
         <v>4</v>
@@ -3785,7 +3937,7 @@
         <v>134</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D168" s="4" t="s">
         <v>4</v>
@@ -3796,7 +3948,7 @@
         <v>134</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D169" s="4" t="s">
         <v>4</v>
@@ -3807,7 +3959,7 @@
         <v>134</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D170" s="4" t="s">
         <v>4</v>
@@ -3818,7 +3970,7 @@
         <v>134</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D171" s="4" t="s">
         <v>4</v>
@@ -3829,7 +3981,7 @@
         <v>134</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D172" s="4" t="s">
         <v>4</v>
@@ -3840,7 +3992,7 @@
         <v>134</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D173" s="4" t="s">
         <v>4</v>
@@ -3851,33 +4003,33 @@
         <v>134</v>
       </c>
       <c r="C174" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="B175" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C175" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="D174" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="176" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="C176" s="7"/>
-      <c r="D176" s="4"/>
+      <c r="D175" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="177" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B177" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C177" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="D177" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C177" s="7"/>
+      <c r="D177" s="4"/>
     </row>
     <row r="178" spans="2:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B178" s="5" t="s">
         <v>171</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D178" s="4" t="s">
         <v>4</v>
@@ -3888,7 +4040,7 @@
         <v>171</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D179" s="4" t="s">
         <v>4</v>
@@ -3899,7 +4051,7 @@
         <v>171</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D180" s="4" t="s">
         <v>4</v>
@@ -3910,7 +4062,7 @@
         <v>171</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D181" s="4" t="s">
         <v>4</v>
@@ -3921,7 +4073,7 @@
         <v>171</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D182" s="4" t="s">
         <v>4</v>
@@ -3932,7 +4084,7 @@
         <v>171</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D183" s="4" t="s">
         <v>4</v>
@@ -3943,7 +4095,7 @@
         <v>171</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D184" s="4" t="s">
         <v>4</v>
@@ -3954,7 +4106,7 @@
         <v>171</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D185" s="4" t="s">
         <v>4</v>
@@ -3965,7 +4117,7 @@
         <v>171</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D186" s="4" t="s">
         <v>4</v>
@@ -3976,7 +4128,7 @@
         <v>171</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D187" s="4" t="s">
         <v>4</v>
@@ -3987,7 +4139,7 @@
         <v>171</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D188" s="4" t="s">
         <v>4</v>
@@ -3998,7 +4150,7 @@
         <v>171</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D189" s="4" t="s">
         <v>4</v>
@@ -4009,7 +4161,7 @@
         <v>171</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D190" s="4" t="s">
         <v>4</v>
@@ -4020,7 +4172,7 @@
         <v>171</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D191" s="4" t="s">
         <v>4</v>
@@ -4031,7 +4183,7 @@
         <v>171</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D192" s="4" t="s">
         <v>4</v>
@@ -4042,7 +4194,7 @@
         <v>171</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D193" s="4" t="s">
         <v>4</v>
@@ -4053,7 +4205,7 @@
         <v>171</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D194" s="4" t="s">
         <v>4</v>
@@ -4064,7 +4216,7 @@
         <v>171</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D195" s="4" t="s">
         <v>4</v>
@@ -4075,7 +4227,7 @@
         <v>171</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D196" s="4" t="s">
         <v>4</v>
@@ -4086,7 +4238,7 @@
         <v>171</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D197" s="4" t="s">
         <v>4</v>
@@ -4097,7 +4249,7 @@
         <v>171</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D198" s="4" t="s">
         <v>4</v>
@@ -4108,7 +4260,7 @@
         <v>171</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D199" s="4" t="s">
         <v>4</v>
@@ -4119,7 +4271,7 @@
         <v>171</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D200" s="4" t="s">
         <v>4</v>
@@ -4130,7 +4282,7 @@
         <v>171</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D201" s="4" t="s">
         <v>4</v>
@@ -4141,7 +4293,7 @@
         <v>171</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D202" s="4" t="s">
         <v>4</v>
@@ -4152,7 +4304,7 @@
         <v>171</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D203" s="4" t="s">
         <v>4</v>
@@ -4163,7 +4315,7 @@
         <v>171</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D204" s="4" t="s">
         <v>4</v>
@@ -4174,7 +4326,7 @@
         <v>171</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D205" s="4" t="s">
         <v>4</v>
@@ -4185,7 +4337,7 @@
         <v>171</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D206" s="4" t="s">
         <v>4</v>
@@ -4196,7 +4348,7 @@
         <v>171</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D207" s="4" t="s">
         <v>4</v>
@@ -4207,7 +4359,7 @@
         <v>171</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D208" s="4" t="s">
         <v>4</v>
@@ -4218,7 +4370,7 @@
         <v>171</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D209" s="4" t="s">
         <v>4</v>
@@ -4229,7 +4381,7 @@
         <v>171</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D210" s="4" t="s">
         <v>4</v>
@@ -4240,16 +4392,22 @@
         <v>171</v>
       </c>
       <c r="C211" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="B212" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C212" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="D211" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="212" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B212" s="8"/>
-      <c r="C212" s="7"/>
-      <c r="D212" s="4"/>
+      <c r="D212" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="213" spans="2:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B213" s="8"/>
@@ -4257,22 +4415,16 @@
       <c r="D213" s="4"/>
     </row>
     <row r="214" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B214" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C214" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D214" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="B214" s="8"/>
+      <c r="C214" s="7"/>
+      <c r="D214" s="4"/>
     </row>
     <row r="215" spans="2:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B215" s="5" t="s">
         <v>207</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D215" s="4" t="s">
         <v>4</v>
@@ -4283,7 +4435,7 @@
         <v>207</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D216" s="4" t="s">
         <v>4</v>
@@ -4294,7 +4446,7 @@
         <v>207</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D217" s="4" t="s">
         <v>4</v>
@@ -4305,7 +4457,7 @@
         <v>207</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D218" s="4" t="s">
         <v>4</v>
@@ -4316,7 +4468,7 @@
         <v>207</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D219" s="4" t="s">
         <v>4</v>
@@ -4326,8 +4478,8 @@
       <c r="B220" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C220" s="9" t="s">
-        <v>214</v>
+      <c r="C220" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="D220" s="4" t="s">
         <v>4</v>
@@ -4337,8 +4489,8 @@
       <c r="B221" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C221" s="6" t="s">
-        <v>215</v>
+      <c r="C221" s="9" t="s">
+        <v>214</v>
       </c>
       <c r="D221" s="4" t="s">
         <v>4</v>
@@ -4349,7 +4501,7 @@
         <v>207</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D222" s="4" t="s">
         <v>4</v>
@@ -4360,7 +4512,7 @@
         <v>207</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D223" s="4" t="s">
         <v>4</v>
@@ -4371,7 +4523,7 @@
         <v>207</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D224" s="4" t="s">
         <v>4</v>
@@ -4382,7 +4534,7 @@
         <v>207</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D225" s="4" t="s">
         <v>4</v>
@@ -4393,7 +4545,7 @@
         <v>207</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D226" s="4" t="s">
         <v>4</v>
@@ -4404,7 +4556,7 @@
         <v>207</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D227" s="4" t="s">
         <v>4</v>
@@ -4415,7 +4567,7 @@
         <v>207</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D228" s="4" t="s">
         <v>4</v>
@@ -4426,7 +4578,7 @@
         <v>207</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D229" s="4" t="s">
         <v>4</v>
@@ -4437,7 +4589,7 @@
         <v>207</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D230" s="4" t="s">
         <v>4</v>
@@ -4448,7 +4600,7 @@
         <v>207</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D231" s="4" t="s">
         <v>4</v>
@@ -4459,7 +4611,7 @@
         <v>207</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D232" s="4" t="s">
         <v>4</v>
@@ -4470,7 +4622,7 @@
         <v>207</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D233" s="4" t="s">
         <v>4</v>
@@ -4481,7 +4633,7 @@
         <v>207</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D234" s="4" t="s">
         <v>4</v>
@@ -4492,37 +4644,37 @@
         <v>207</v>
       </c>
       <c r="C235" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D235" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="B236" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C236" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="D235" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="236" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="C236" s="7"/>
-      <c r="D236" s="4"/>
+      <c r="D236" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="237" spans="2:4" ht="21" x14ac:dyDescent="0.25">
       <c r="C237" s="7"/>
       <c r="D237" s="4"/>
     </row>
     <row r="238" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B238" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C238" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="D238" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C238" s="7"/>
+      <c r="D238" s="4"/>
     </row>
     <row r="239" spans="2:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B239" s="5" t="s">
         <v>230</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D239" s="4" t="s">
         <v>4</v>
@@ -4533,7 +4685,7 @@
         <v>230</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D240" s="4" t="s">
         <v>4</v>
@@ -4544,7 +4696,7 @@
         <v>230</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D241" s="4" t="s">
         <v>4</v>
@@ -4555,7 +4707,7 @@
         <v>230</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D242" s="4" t="s">
         <v>4</v>
@@ -4566,7 +4718,7 @@
         <v>230</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D243" s="4" t="s">
         <v>4</v>
@@ -4577,7 +4729,7 @@
         <v>230</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D244" s="4" t="s">
         <v>4</v>
@@ -4588,7 +4740,7 @@
         <v>230</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D245" s="4" t="s">
         <v>4</v>
@@ -4599,7 +4751,7 @@
         <v>230</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D246" s="4" t="s">
         <v>4</v>
@@ -4610,7 +4762,7 @@
         <v>230</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D247" s="4" t="s">
         <v>4</v>
@@ -4621,7 +4773,7 @@
         <v>230</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D248" s="4" t="s">
         <v>4</v>
@@ -4632,7 +4784,7 @@
         <v>230</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D249" s="4" t="s">
         <v>4</v>
@@ -4643,7 +4795,7 @@
         <v>230</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D250" s="4" t="s">
         <v>4</v>
@@ -4654,7 +4806,7 @@
         <v>230</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D251" s="4" t="s">
         <v>4</v>
@@ -4665,7 +4817,7 @@
         <v>230</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D252" s="4" t="s">
         <v>4</v>
@@ -4676,7 +4828,7 @@
         <v>230</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D253" s="4" t="s">
         <v>4</v>
@@ -4687,7 +4839,7 @@
         <v>230</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D254" s="4" t="s">
         <v>4</v>
@@ -4698,7 +4850,7 @@
         <v>230</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D255" s="4" t="s">
         <v>4</v>
@@ -4709,7 +4861,7 @@
         <v>230</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D256" s="4" t="s">
         <v>4</v>
@@ -4720,7 +4872,7 @@
         <v>230</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D257" s="4" t="s">
         <v>4</v>
@@ -4731,7 +4883,7 @@
         <v>230</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D258" s="4" t="s">
         <v>4</v>
@@ -4742,7 +4894,7 @@
         <v>230</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D259" s="4" t="s">
         <v>4</v>
@@ -4753,7 +4905,7 @@
         <v>230</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D260" s="4" t="s">
         <v>4</v>
@@ -4764,7 +4916,7 @@
         <v>230</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D261" s="4" t="s">
         <v>4</v>
@@ -4775,7 +4927,7 @@
         <v>230</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D262" s="4" t="s">
         <v>4</v>
@@ -4786,7 +4938,7 @@
         <v>230</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D263" s="4" t="s">
         <v>4</v>
@@ -4797,7 +4949,7 @@
         <v>230</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D264" s="4" t="s">
         <v>4</v>
@@ -4808,7 +4960,7 @@
         <v>230</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D265" s="4" t="s">
         <v>4</v>
@@ -4819,7 +4971,7 @@
         <v>230</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D266" s="4" t="s">
         <v>4</v>
@@ -4830,7 +4982,7 @@
         <v>230</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D267" s="4" t="s">
         <v>4</v>
@@ -4841,7 +4993,7 @@
         <v>230</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D268" s="4" t="s">
         <v>4</v>
@@ -4852,7 +5004,7 @@
         <v>230</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D269" s="4" t="s">
         <v>4</v>
@@ -4863,7 +5015,7 @@
         <v>230</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D270" s="4" t="s">
         <v>4</v>
@@ -4874,7 +5026,7 @@
         <v>230</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>87</v>
+        <v>263</v>
       </c>
       <c r="D271" s="4" t="s">
         <v>4</v>
@@ -4885,37 +5037,37 @@
         <v>230</v>
       </c>
       <c r="C272" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D272" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="B273" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C273" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="D272" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="273" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="C273" s="7"/>
-      <c r="D273" s="4"/>
+      <c r="D273" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="274" spans="2:4" ht="21" x14ac:dyDescent="0.25">
       <c r="C274" s="7"/>
       <c r="D274" s="4"/>
     </row>
     <row r="275" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B275" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="C275" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="D275" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C275" s="7"/>
+      <c r="D275" s="4"/>
     </row>
     <row r="276" spans="2:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B276" s="5" t="s">
         <v>265</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D276" s="4" t="s">
         <v>4</v>
@@ -4926,7 +5078,7 @@
         <v>265</v>
       </c>
       <c r="C277" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D277" s="4" t="s">
         <v>4</v>
@@ -4937,7 +5089,7 @@
         <v>265</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D278" s="4" t="s">
         <v>4</v>
@@ -4948,7 +5100,7 @@
         <v>265</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D279" s="4" t="s">
         <v>4</v>
@@ -4959,7 +5111,7 @@
         <v>265</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D280" s="4" t="s">
         <v>4</v>
@@ -4970,7 +5122,7 @@
         <v>265</v>
       </c>
       <c r="C281" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D281" s="4" t="s">
         <v>4</v>
@@ -4981,7 +5133,7 @@
         <v>265</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D282" s="4" t="s">
         <v>4</v>
@@ -4992,7 +5144,7 @@
         <v>265</v>
       </c>
       <c r="C283" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D283" s="4" t="s">
         <v>4</v>
@@ -5003,7 +5155,7 @@
         <v>265</v>
       </c>
       <c r="C284" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D284" s="4" t="s">
         <v>4</v>
@@ -5014,7 +5166,7 @@
         <v>265</v>
       </c>
       <c r="C285" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D285" s="4" t="s">
         <v>4</v>
@@ -5025,7 +5177,7 @@
         <v>265</v>
       </c>
       <c r="C286" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D286" s="4" t="s">
         <v>4</v>
@@ -5036,7 +5188,7 @@
         <v>265</v>
       </c>
       <c r="C287" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D287" s="4" t="s">
         <v>4</v>
@@ -5047,7 +5199,7 @@
         <v>265</v>
       </c>
       <c r="C288" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D288" s="4" t="s">
         <v>4</v>
@@ -5058,7 +5210,7 @@
         <v>265</v>
       </c>
       <c r="C289" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D289" s="4" t="s">
         <v>4</v>
@@ -5069,7 +5221,7 @@
         <v>265</v>
       </c>
       <c r="C290" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D290" s="4" t="s">
         <v>4</v>
@@ -5080,7 +5232,7 @@
         <v>265</v>
       </c>
       <c r="C291" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D291" s="4" t="s">
         <v>4</v>
@@ -5091,7 +5243,7 @@
         <v>265</v>
       </c>
       <c r="C292" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D292" s="4" t="s">
         <v>4</v>
@@ -5102,37 +5254,37 @@
         <v>265</v>
       </c>
       <c r="C293" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D293" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="B294" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C294" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="D293" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="294" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="C294" s="7"/>
-      <c r="D294" s="4"/>
+      <c r="D294" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="295" spans="2:4" ht="21" x14ac:dyDescent="0.25">
       <c r="C295" s="7"/>
       <c r="D295" s="4"/>
     </row>
     <row r="296" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B296" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="C296" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="D296" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C296" s="7"/>
+      <c r="D296" s="4"/>
     </row>
     <row r="297" spans="2:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B297" s="5" t="s">
         <v>285</v>
       </c>
       <c r="C297" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D297" s="4" t="s">
         <v>4</v>
@@ -5143,7 +5295,7 @@
         <v>285</v>
       </c>
       <c r="C298" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D298" s="4" t="s">
         <v>4</v>
@@ -5154,7 +5306,7 @@
         <v>285</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D299" s="4" t="s">
         <v>4</v>
@@ -5165,7 +5317,7 @@
         <v>285</v>
       </c>
       <c r="C300" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D300" s="4" t="s">
         <v>4</v>
@@ -5176,7 +5328,7 @@
         <v>285</v>
       </c>
       <c r="C301" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D301" s="4" t="s">
         <v>4</v>
@@ -5187,7 +5339,7 @@
         <v>285</v>
       </c>
       <c r="C302" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D302" s="4" t="s">
         <v>4</v>
@@ -5198,7 +5350,7 @@
         <v>285</v>
       </c>
       <c r="C303" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D303" s="4" t="s">
         <v>4</v>
@@ -5209,7 +5361,7 @@
         <v>285</v>
       </c>
       <c r="C304" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D304" s="4" t="s">
         <v>4</v>
@@ -5220,7 +5372,7 @@
         <v>285</v>
       </c>
       <c r="C305" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D305" s="4" t="s">
         <v>4</v>
@@ -5231,7 +5383,7 @@
         <v>285</v>
       </c>
       <c r="C306" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D306" s="4" t="s">
         <v>4</v>
@@ -5242,7 +5394,7 @@
         <v>285</v>
       </c>
       <c r="C307" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D307" s="4" t="s">
         <v>4</v>
@@ -5253,7 +5405,7 @@
         <v>285</v>
       </c>
       <c r="C308" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D308" s="4" t="s">
         <v>4</v>
@@ -5263,8 +5415,8 @@
       <c r="B309" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="C309" s="9" t="s">
-        <v>299</v>
+      <c r="C309" s="6" t="s">
+        <v>298</v>
       </c>
       <c r="D309" s="4" t="s">
         <v>4</v>
@@ -5274,8 +5426,8 @@
       <c r="B310" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="C310" s="6" t="s">
-        <v>300</v>
+      <c r="C310" s="9" t="s">
+        <v>299</v>
       </c>
       <c r="D310" s="4" t="s">
         <v>4</v>
@@ -5286,7 +5438,7 @@
         <v>285</v>
       </c>
       <c r="C311" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D311" s="4" t="s">
         <v>4</v>
@@ -5297,7 +5449,7 @@
         <v>285</v>
       </c>
       <c r="C312" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D312" s="4" t="s">
         <v>4</v>
@@ -5308,7 +5460,7 @@
         <v>285</v>
       </c>
       <c r="C313" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D313" s="4" t="s">
         <v>4</v>
@@ -5319,7 +5471,7 @@
         <v>285</v>
       </c>
       <c r="C314" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D314" s="4" t="s">
         <v>4</v>
@@ -5330,7 +5482,7 @@
         <v>285</v>
       </c>
       <c r="C315" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D315" s="4" t="s">
         <v>4</v>
@@ -5341,7 +5493,7 @@
         <v>285</v>
       </c>
       <c r="C316" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D316" s="4" t="s">
         <v>4</v>
@@ -5352,7 +5504,7 @@
         <v>285</v>
       </c>
       <c r="C317" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D317" s="4" t="s">
         <v>4</v>
@@ -5363,7 +5515,7 @@
         <v>285</v>
       </c>
       <c r="C318" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D318" s="4" t="s">
         <v>4</v>
@@ -5374,7 +5526,7 @@
         <v>285</v>
       </c>
       <c r="C319" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D319" s="4" t="s">
         <v>4</v>
@@ -5385,7 +5537,7 @@
         <v>285</v>
       </c>
       <c r="C320" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D320" s="4" t="s">
         <v>4</v>
@@ -5396,7 +5548,7 @@
         <v>285</v>
       </c>
       <c r="C321" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D321" s="4" t="s">
         <v>4</v>
@@ -5407,7 +5559,7 @@
         <v>285</v>
       </c>
       <c r="C322" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D322" s="4" t="s">
         <v>4</v>
@@ -5418,7 +5570,7 @@
         <v>285</v>
       </c>
       <c r="C323" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D323" s="4" t="s">
         <v>4</v>
@@ -5429,7 +5581,7 @@
         <v>285</v>
       </c>
       <c r="C324" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D324" s="4" t="s">
         <v>4</v>
@@ -5440,7 +5592,7 @@
         <v>285</v>
       </c>
       <c r="C325" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D325" s="4" t="s">
         <v>4</v>
@@ -5451,7 +5603,7 @@
         <v>285</v>
       </c>
       <c r="C326" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D326" s="4" t="s">
         <v>4</v>
@@ -5462,7 +5614,7 @@
         <v>285</v>
       </c>
       <c r="C327" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D327" s="4" t="s">
         <v>4</v>
@@ -5473,7 +5625,7 @@
         <v>285</v>
       </c>
       <c r="C328" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D328" s="4" t="s">
         <v>4</v>
@@ -5484,7 +5636,7 @@
         <v>285</v>
       </c>
       <c r="C329" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D329" s="4" t="s">
         <v>4</v>
@@ -5495,7 +5647,7 @@
         <v>285</v>
       </c>
       <c r="C330" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D330" s="4" t="s">
         <v>4</v>
@@ -5506,7 +5658,7 @@
         <v>285</v>
       </c>
       <c r="C331" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D331" s="4" t="s">
         <v>4</v>
@@ -5517,7 +5669,7 @@
         <v>285</v>
       </c>
       <c r="C332" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D332" s="4" t="s">
         <v>4</v>
@@ -5528,37 +5680,37 @@
         <v>285</v>
       </c>
       <c r="C333" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="D333" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="334" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="B334" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C334" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="D333" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="334" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="C334" s="7"/>
-      <c r="D334" s="4"/>
+      <c r="D334" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="335" spans="2:4" ht="21" x14ac:dyDescent="0.25">
       <c r="C335" s="7"/>
       <c r="D335" s="4"/>
     </row>
     <row r="336" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B336" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="C336" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="D336" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C336" s="7"/>
+      <c r="D336" s="4"/>
     </row>
     <row r="337" spans="2:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B337" s="8" t="s">
         <v>324</v>
       </c>
       <c r="C337" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D337" s="4" t="s">
         <v>4</v>
@@ -5569,7 +5721,7 @@
         <v>324</v>
       </c>
       <c r="C338" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D338" s="4" t="s">
         <v>4</v>
@@ -5580,7 +5732,7 @@
         <v>324</v>
       </c>
       <c r="C339" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D339" s="4" t="s">
         <v>4</v>
@@ -5591,7 +5743,7 @@
         <v>324</v>
       </c>
       <c r="C340" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D340" s="4" t="s">
         <v>4</v>
@@ -5602,7 +5754,7 @@
         <v>324</v>
       </c>
       <c r="C341" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D341" s="4" t="s">
         <v>4</v>
@@ -5613,7 +5765,7 @@
         <v>324</v>
       </c>
       <c r="C342" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D342" s="4" t="s">
         <v>4</v>
@@ -5624,7 +5776,7 @@
         <v>324</v>
       </c>
       <c r="C343" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D343" s="4" t="s">
         <v>4</v>
@@ -5634,8 +5786,8 @@
       <c r="B344" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="C344" s="9" t="s">
-        <v>333</v>
+      <c r="C344" s="6" t="s">
+        <v>332</v>
       </c>
       <c r="D344" s="4" t="s">
         <v>4</v>
@@ -5645,8 +5797,8 @@
       <c r="B345" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="C345" s="6" t="s">
-        <v>334</v>
+      <c r="C345" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="D345" s="4" t="s">
         <v>4</v>
@@ -5657,7 +5809,7 @@
         <v>324</v>
       </c>
       <c r="C346" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D346" s="4" t="s">
         <v>4</v>
@@ -5668,7 +5820,7 @@
         <v>324</v>
       </c>
       <c r="C347" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D347" s="4" t="s">
         <v>4</v>
@@ -5679,7 +5831,7 @@
         <v>324</v>
       </c>
       <c r="C348" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D348" s="4" t="s">
         <v>4</v>
@@ -5690,7 +5842,7 @@
         <v>324</v>
       </c>
       <c r="C349" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D349" s="4" t="s">
         <v>4</v>
@@ -5701,7 +5853,7 @@
         <v>324</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D350" s="4" t="s">
         <v>4</v>
@@ -5712,7 +5864,7 @@
         <v>324</v>
       </c>
       <c r="C351" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D351" s="4" t="s">
         <v>4</v>
@@ -5723,7 +5875,7 @@
         <v>324</v>
       </c>
       <c r="C352" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D352" s="4" t="s">
         <v>4</v>
@@ -5734,37 +5886,37 @@
         <v>324</v>
       </c>
       <c r="C353" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D353" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="354" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="B354" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="C354" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="D353" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="354" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="C354" s="7"/>
-      <c r="D354" s="4"/>
+      <c r="D354" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="355" spans="2:4" ht="21" x14ac:dyDescent="0.25">
       <c r="C355" s="7"/>
       <c r="D355" s="4"/>
     </row>
     <row r="356" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B356" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="C356" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="D356" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C356" s="7"/>
+      <c r="D356" s="4"/>
     </row>
     <row r="357" spans="2:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B357" s="8" t="s">
         <v>343</v>
       </c>
       <c r="C357" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D357" s="4" t="s">
         <v>4</v>
@@ -5775,7 +5927,7 @@
         <v>343</v>
       </c>
       <c r="C358" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D358" s="4" t="s">
         <v>4</v>
@@ -5786,7 +5938,7 @@
         <v>343</v>
       </c>
       <c r="C359" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D359" s="4" t="s">
         <v>4</v>
@@ -5797,7 +5949,7 @@
         <v>343</v>
       </c>
       <c r="C360" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D360" s="4" t="s">
         <v>4</v>
@@ -5808,7 +5960,7 @@
         <v>343</v>
       </c>
       <c r="C361" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D361" s="4" t="s">
         <v>4</v>
@@ -5819,7 +5971,7 @@
         <v>343</v>
       </c>
       <c r="C362" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D362" s="4" t="s">
         <v>4</v>
@@ -5830,7 +5982,7 @@
         <v>343</v>
       </c>
       <c r="C363" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D363" s="4" t="s">
         <v>4</v>
@@ -5841,7 +5993,7 @@
         <v>343</v>
       </c>
       <c r="C364" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D364" s="4" t="s">
         <v>4</v>
@@ -5852,7 +6004,7 @@
         <v>343</v>
       </c>
       <c r="C365" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D365" s="4" t="s">
         <v>4</v>
@@ -5863,7 +6015,7 @@
         <v>343</v>
       </c>
       <c r="C366" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D366" s="4" t="s">
         <v>4</v>
@@ -5874,7 +6026,7 @@
         <v>343</v>
       </c>
       <c r="C367" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D367" s="4" t="s">
         <v>4</v>
@@ -5885,7 +6037,7 @@
         <v>343</v>
       </c>
       <c r="C368" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D368" s="4" t="s">
         <v>4</v>
@@ -5896,7 +6048,7 @@
         <v>343</v>
       </c>
       <c r="C369" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D369" s="4" t="s">
         <v>4</v>
@@ -5907,7 +6059,7 @@
         <v>343</v>
       </c>
       <c r="C370" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D370" s="4" t="s">
         <v>4</v>
@@ -5918,7 +6070,7 @@
         <v>343</v>
       </c>
       <c r="C371" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D371" s="4" t="s">
         <v>4</v>
@@ -5929,7 +6081,7 @@
         <v>343</v>
       </c>
       <c r="C372" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D372" s="4" t="s">
         <v>4</v>
@@ -5940,7 +6092,7 @@
         <v>343</v>
       </c>
       <c r="C373" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D373" s="4" t="s">
         <v>4</v>
@@ -5951,7 +6103,7 @@
         <v>343</v>
       </c>
       <c r="C374" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D374" s="4" t="s">
         <v>4</v>
@@ -5962,7 +6114,7 @@
         <v>343</v>
       </c>
       <c r="C375" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D375" s="4" t="s">
         <v>4</v>
@@ -5973,7 +6125,7 @@
         <v>343</v>
       </c>
       <c r="C376" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D376" s="4" t="s">
         <v>4</v>
@@ -5984,7 +6136,7 @@
         <v>343</v>
       </c>
       <c r="C377" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D377" s="4" t="s">
         <v>4</v>
@@ -5995,7 +6147,7 @@
         <v>343</v>
       </c>
       <c r="C378" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D378" s="4" t="s">
         <v>4</v>
@@ -6006,7 +6158,7 @@
         <v>343</v>
       </c>
       <c r="C379" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D379" s="4" t="s">
         <v>4</v>
@@ -6017,7 +6169,7 @@
         <v>343</v>
       </c>
       <c r="C380" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D380" s="4" t="s">
         <v>4</v>
@@ -6028,7 +6180,7 @@
         <v>343</v>
       </c>
       <c r="C381" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D381" s="4" t="s">
         <v>4</v>
@@ -6039,7 +6191,7 @@
         <v>343</v>
       </c>
       <c r="C382" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D382" s="4" t="s">
         <v>4</v>
@@ -6050,7 +6202,7 @@
         <v>343</v>
       </c>
       <c r="C383" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D383" s="4" t="s">
         <v>4</v>
@@ -6061,7 +6213,7 @@
         <v>343</v>
       </c>
       <c r="C384" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D384" s="4" t="s">
         <v>4</v>
@@ -6072,7 +6224,7 @@
         <v>343</v>
       </c>
       <c r="C385" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D385" s="4" t="s">
         <v>4</v>
@@ -6083,7 +6235,7 @@
         <v>343</v>
       </c>
       <c r="C386" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D386" s="4" t="s">
         <v>4</v>
@@ -6094,7 +6246,7 @@
         <v>343</v>
       </c>
       <c r="C387" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D387" s="4" t="s">
         <v>4</v>
@@ -6105,7 +6257,7 @@
         <v>343</v>
       </c>
       <c r="C388" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D388" s="4" t="s">
         <v>4</v>
@@ -6116,7 +6268,7 @@
         <v>343</v>
       </c>
       <c r="C389" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D389" s="4" t="s">
         <v>4</v>
@@ -6138,7 +6290,7 @@
         <v>343</v>
       </c>
       <c r="C391" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D391" s="4" t="s">
         <v>4</v>
@@ -6149,7 +6301,7 @@
         <v>343</v>
       </c>
       <c r="C392" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D392" s="4" t="s">
         <v>4</v>
@@ -6160,7 +6312,7 @@
         <v>343</v>
       </c>
       <c r="C393" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D393" s="4" t="s">
         <v>4</v>
@@ -6171,7 +6323,7 @@
         <v>343</v>
       </c>
       <c r="C394" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D394" s="4" t="s">
         <v>4</v>
@@ -6182,7 +6334,7 @@
         <v>343</v>
       </c>
       <c r="C395" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D395" s="4" t="s">
         <v>4</v>
@@ -6193,7 +6345,7 @@
         <v>343</v>
       </c>
       <c r="C396" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D396" s="4" t="s">
         <v>4</v>
@@ -6204,7 +6356,7 @@
         <v>343</v>
       </c>
       <c r="C397" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D397" s="4" t="s">
         <v>4</v>
@@ -6215,7 +6367,7 @@
         <v>343</v>
       </c>
       <c r="C398" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D398" s="4" t="s">
         <v>4</v>
@@ -6226,37 +6378,37 @@
         <v>343</v>
       </c>
       <c r="C399" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="D399" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="400" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="B400" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="C400" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="D399" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="400" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="C400" s="7"/>
-      <c r="D400" s="4"/>
+      <c r="D400" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="401" spans="2:4" ht="21" x14ac:dyDescent="0.25">
       <c r="C401" s="7"/>
       <c r="D401" s="4"/>
     </row>
     <row r="402" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B402" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="C402" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="D402" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C402" s="7"/>
+      <c r="D402" s="4"/>
     </row>
     <row r="403" spans="2:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B403" s="8" t="s">
         <v>387</v>
       </c>
       <c r="C403" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D403" s="4" t="s">
         <v>4</v>
@@ -6267,7 +6419,7 @@
         <v>387</v>
       </c>
       <c r="C404" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D404" s="4" t="s">
         <v>4</v>
@@ -6278,7 +6430,7 @@
         <v>387</v>
       </c>
       <c r="C405" s="6" t="s">
-        <v>89</v>
+        <v>390</v>
       </c>
       <c r="D405" s="4" t="s">
         <v>4</v>
@@ -6289,7 +6441,7 @@
         <v>387</v>
       </c>
       <c r="C406" s="6" t="s">
-        <v>391</v>
+        <v>89</v>
       </c>
       <c r="D406" s="4" t="s">
         <v>4</v>
@@ -6300,37 +6452,37 @@
         <v>387</v>
       </c>
       <c r="C407" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="D407" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="408" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="B408" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="C408" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="D407" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="408" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="C408" s="7"/>
-      <c r="D408" s="4"/>
+      <c r="D408" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="409" spans="2:4" ht="21" x14ac:dyDescent="0.25">
       <c r="C409" s="7"/>
       <c r="D409" s="4"/>
     </row>
     <row r="410" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B410" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="C410" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="D410" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C410" s="7"/>
+      <c r="D410" s="4"/>
     </row>
     <row r="411" spans="2:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B411" s="5" t="s">
         <v>393</v>
       </c>
       <c r="C411" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D411" s="4" t="s">
         <v>4</v>
@@ -6341,7 +6493,7 @@
         <v>393</v>
       </c>
       <c r="C412" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D412" s="4" t="s">
         <v>4</v>
@@ -6352,7 +6504,7 @@
         <v>393</v>
       </c>
       <c r="C413" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D413" s="4" t="s">
         <v>4</v>
@@ -6363,7 +6515,7 @@
         <v>393</v>
       </c>
       <c r="C414" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D414" s="4" t="s">
         <v>4</v>
@@ -6374,7 +6526,7 @@
         <v>393</v>
       </c>
       <c r="C415" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D415" s="4" t="s">
         <v>4</v>
@@ -6385,7 +6537,7 @@
         <v>393</v>
       </c>
       <c r="C416" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D416" s="4" t="s">
         <v>4</v>
@@ -6396,7 +6548,7 @@
         <v>393</v>
       </c>
       <c r="C417" s="6" t="s">
-        <v>273</v>
+        <v>400</v>
       </c>
       <c r="D417" s="4" t="s">
         <v>4</v>
@@ -6407,7 +6559,7 @@
         <v>393</v>
       </c>
       <c r="C418" s="6" t="s">
-        <v>401</v>
+        <v>273</v>
       </c>
       <c r="D418" s="4" t="s">
         <v>4</v>
@@ -6418,7 +6570,7 @@
         <v>393</v>
       </c>
       <c r="C419" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D419" s="4" t="s">
         <v>4</v>
@@ -6429,7 +6581,7 @@
         <v>393</v>
       </c>
       <c r="C420" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D420" s="4" t="s">
         <v>4</v>
@@ -6440,7 +6592,7 @@
         <v>393</v>
       </c>
       <c r="C421" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D421" s="4" t="s">
         <v>4</v>
@@ -6451,7 +6603,7 @@
         <v>393</v>
       </c>
       <c r="C422" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D422" s="4" t="s">
         <v>4</v>
@@ -6462,7 +6614,7 @@
         <v>393</v>
       </c>
       <c r="C423" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D423" s="4" t="s">
         <v>4</v>
@@ -6473,7 +6625,7 @@
         <v>393</v>
       </c>
       <c r="C424" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D424" s="4" t="s">
         <v>4</v>
@@ -6484,7 +6636,7 @@
         <v>393</v>
       </c>
       <c r="C425" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D425" s="4" t="s">
         <v>4</v>
@@ -6495,7 +6647,7 @@
         <v>393</v>
       </c>
       <c r="C426" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D426" s="4" t="s">
         <v>4</v>
@@ -6506,7 +6658,7 @@
         <v>393</v>
       </c>
       <c r="C427" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D427" s="4" t="s">
         <v>4</v>
@@ -6517,7 +6669,7 @@
         <v>393</v>
       </c>
       <c r="C428" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D428" s="4" t="s">
         <v>4</v>
@@ -6528,7 +6680,7 @@
         <v>393</v>
       </c>
       <c r="C429" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D429" s="4" t="s">
         <v>4</v>
@@ -6539,7 +6691,7 @@
         <v>393</v>
       </c>
       <c r="C430" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D430" s="4" t="s">
         <v>4</v>
@@ -6550,7 +6702,7 @@
         <v>393</v>
       </c>
       <c r="C431" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D431" s="4" t="s">
         <v>4</v>
@@ -6561,7 +6713,7 @@
         <v>393</v>
       </c>
       <c r="C432" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D432" s="4" t="s">
         <v>4</v>
@@ -6572,7 +6724,7 @@
         <v>393</v>
       </c>
       <c r="C433" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D433" s="4" t="s">
         <v>4</v>
@@ -6583,7 +6735,7 @@
         <v>393</v>
       </c>
       <c r="C434" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D434" s="4" t="s">
         <v>4</v>
@@ -6594,7 +6746,7 @@
         <v>393</v>
       </c>
       <c r="C435" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D435" s="4" t="s">
         <v>4</v>
@@ -6605,7 +6757,7 @@
         <v>393</v>
       </c>
       <c r="C436" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D436" s="4" t="s">
         <v>4</v>
@@ -6616,7 +6768,7 @@
         <v>393</v>
       </c>
       <c r="C437" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D437" s="4" t="s">
         <v>4</v>
@@ -6627,7 +6779,7 @@
         <v>393</v>
       </c>
       <c r="C438" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D438" s="4" t="s">
         <v>4</v>
@@ -6638,7 +6790,7 @@
         <v>393</v>
       </c>
       <c r="C439" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D439" s="4" t="s">
         <v>4</v>
@@ -6649,7 +6801,7 @@
         <v>393</v>
       </c>
       <c r="C440" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D440" s="4" t="s">
         <v>4</v>
@@ -6660,7 +6812,7 @@
         <v>393</v>
       </c>
       <c r="C441" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D441" s="4" t="s">
         <v>4</v>
@@ -6671,7 +6823,7 @@
         <v>393</v>
       </c>
       <c r="C442" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D442" s="4" t="s">
         <v>4</v>
@@ -6682,7 +6834,7 @@
         <v>393</v>
       </c>
       <c r="C443" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D443" s="4" t="s">
         <v>4</v>
@@ -6693,7 +6845,7 @@
         <v>393</v>
       </c>
       <c r="C444" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D444" s="4" t="s">
         <v>4</v>
@@ -6704,7 +6856,7 @@
         <v>393</v>
       </c>
       <c r="C445" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D445" s="4" t="s">
         <v>4</v>
@@ -6715,7 +6867,7 @@
         <v>393</v>
       </c>
       <c r="C446" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D446" s="4" t="s">
         <v>4</v>
@@ -6726,7 +6878,7 @@
         <v>393</v>
       </c>
       <c r="C447" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D447" s="4" t="s">
         <v>4</v>
@@ -6737,7 +6889,7 @@
         <v>393</v>
       </c>
       <c r="C448" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D448" s="4" t="s">
         <v>4</v>
@@ -6748,7 +6900,7 @@
         <v>393</v>
       </c>
       <c r="C449" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D449" s="4" t="s">
         <v>4</v>
@@ -6759,7 +6911,7 @@
         <v>393</v>
       </c>
       <c r="C450" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D450" s="4" t="s">
         <v>4</v>
@@ -6770,7 +6922,7 @@
         <v>393</v>
       </c>
       <c r="C451" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D451" s="4" t="s">
         <v>4</v>
@@ -6781,7 +6933,7 @@
         <v>393</v>
       </c>
       <c r="C452" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D452" s="4" t="s">
         <v>4</v>
@@ -6792,7 +6944,7 @@
         <v>393</v>
       </c>
       <c r="C453" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D453" s="4" t="s">
         <v>4</v>
@@ -6803,7 +6955,7 @@
         <v>393</v>
       </c>
       <c r="C454" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D454" s="4" t="s">
         <v>4</v>
@@ -6814,7 +6966,7 @@
         <v>393</v>
       </c>
       <c r="C455" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D455" s="4" t="s">
         <v>4</v>
@@ -6825,7 +6977,7 @@
         <v>393</v>
       </c>
       <c r="C456" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D456" s="4" t="s">
         <v>4</v>
@@ -6836,7 +6988,7 @@
         <v>393</v>
       </c>
       <c r="C457" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D457" s="4" t="s">
         <v>4</v>
@@ -6847,7 +6999,7 @@
         <v>393</v>
       </c>
       <c r="C458" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D458" s="4" t="s">
         <v>4</v>
@@ -6858,7 +7010,7 @@
         <v>393</v>
       </c>
       <c r="C459" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D459" s="4" t="s">
         <v>4</v>
@@ -6869,7 +7021,7 @@
         <v>393</v>
       </c>
       <c r="C460" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D460" s="4" t="s">
         <v>4</v>
@@ -6880,7 +7032,7 @@
         <v>393</v>
       </c>
       <c r="C461" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D461" s="4" t="s">
         <v>4</v>
@@ -6891,7 +7043,7 @@
         <v>393</v>
       </c>
       <c r="C462" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D462" s="4" t="s">
         <v>4</v>
@@ -6902,7 +7054,7 @@
         <v>393</v>
       </c>
       <c r="C463" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D463" s="4" t="s">
         <v>4</v>
@@ -6913,7 +7065,7 @@
         <v>393</v>
       </c>
       <c r="C464" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D464" s="4" t="s">
         <v>4</v>
@@ -6924,7 +7076,7 @@
         <v>393</v>
       </c>
       <c r="C465" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D465" s="4" t="s">
         <v>4</v>
@@ -6935,7 +7087,7 @@
         <v>393</v>
       </c>
       <c r="C466" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D466" s="4" t="s">
         <v>4</v>
@@ -6946,7 +7098,7 @@
         <v>393</v>
       </c>
       <c r="C467" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D467" s="4" t="s">
         <v>4</v>
@@ -6957,7 +7109,7 @@
         <v>393</v>
       </c>
       <c r="C468" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D468" s="4" t="s">
         <v>4</v>
@@ -6968,38 +7120,38 @@
         <v>393</v>
       </c>
       <c r="C469" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="D469" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="470" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="B470" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C470" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="D469" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="470" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="C470" s="7"/>
-      <c r="D470" s="4"/>
+      <c r="D470" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="471" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B471" s="8"/>
       <c r="C471" s="7"/>
       <c r="D471" s="4"/>
     </row>
     <row r="472" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B472" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="C472" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="D472" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="B472" s="8"/>
+      <c r="C472" s="7"/>
+      <c r="D472" s="4"/>
     </row>
     <row r="473" spans="2:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B473" s="5" t="s">
         <v>453</v>
       </c>
       <c r="C473" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D473" s="4" t="s">
         <v>4</v>
@@ -7010,7 +7162,7 @@
         <v>453</v>
       </c>
       <c r="C474" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D474" s="4" t="s">
         <v>4</v>
@@ -7021,7 +7173,7 @@
         <v>453</v>
       </c>
       <c r="C475" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D475" s="4" t="s">
         <v>4</v>
@@ -7032,7 +7184,7 @@
         <v>453</v>
       </c>
       <c r="C476" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D476" s="4" t="s">
         <v>4</v>
@@ -7043,7 +7195,7 @@
         <v>453</v>
       </c>
       <c r="C477" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D477" s="4" t="s">
         <v>4</v>
@@ -7054,7 +7206,7 @@
         <v>453</v>
       </c>
       <c r="C478" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D478" s="4" t="s">
         <v>4</v>
@@ -7065,7 +7217,7 @@
         <v>453</v>
       </c>
       <c r="C479" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D479" s="4" t="s">
         <v>4</v>
@@ -7076,7 +7228,7 @@
         <v>453</v>
       </c>
       <c r="C480" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D480" s="4" t="s">
         <v>4</v>
@@ -7087,9 +7239,20 @@
         <v>453</v>
       </c>
       <c r="C481" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="D481" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="482" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="B482" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="C482" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="D481" s="4" t="s">
+      <c r="D482" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7135,412 +7298,413 @@
     <hyperlink ref="C45" r:id="rId38" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
     <hyperlink ref="C46" r:id="rId39" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
     <hyperlink ref="C47" r:id="rId40" xr:uid="{FFF7D257-1F58-5A4B-AAA2-F5480AED86C7}"/>
-    <hyperlink ref="C48" r:id="rId41" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>
-    <hyperlink ref="C49" r:id="rId42" xr:uid="{F9B53127-FC98-FE43-B53F-BFDBCE2A4427}"/>
-    <hyperlink ref="C50" r:id="rId43" xr:uid="{40685BBC-CE24-624E-9ABB-98490B7DE0E4}"/>
-    <hyperlink ref="C51" r:id="rId44" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
-    <hyperlink ref="C52" r:id="rId45" xr:uid="{E8C1FE00-7B4B-5745-8E4B-CD44B6C749E3}"/>
-    <hyperlink ref="C53" r:id="rId46" xr:uid="{FDE181B1-57B0-7C4B-A189-C7C6E4EAEF99}"/>
-    <hyperlink ref="C56" r:id="rId47" xr:uid="{FE85FD72-4FC9-334E-8205-9E8B238954EB}"/>
-    <hyperlink ref="C57" r:id="rId48" xr:uid="{7630AD76-7E6B-8C4A-BA33-A62EBB042215}"/>
-    <hyperlink ref="C58" r:id="rId49" xr:uid="{2A738B70-CBF0-CC40-8B05-A271822B3F1A}"/>
-    <hyperlink ref="C60" r:id="rId50" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
-    <hyperlink ref="C61" r:id="rId51" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
-    <hyperlink ref="C62" r:id="rId52" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
-    <hyperlink ref="C63" r:id="rId53" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
-    <hyperlink ref="C64" r:id="rId54" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
-    <hyperlink ref="C65" r:id="rId55" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
-    <hyperlink ref="C66" r:id="rId56" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
-    <hyperlink ref="C67" r:id="rId57" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
-    <hyperlink ref="C68" r:id="rId58" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
-    <hyperlink ref="C69" r:id="rId59" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
-    <hyperlink ref="C70" r:id="rId60" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
-    <hyperlink ref="C71" r:id="rId61" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
-    <hyperlink ref="C72" r:id="rId62" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
-    <hyperlink ref="C73" r:id="rId63" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
-    <hyperlink ref="C74" r:id="rId64" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
-    <hyperlink ref="C75" r:id="rId65" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
-    <hyperlink ref="C76" r:id="rId66" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
-    <hyperlink ref="C77" r:id="rId67" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
-    <hyperlink ref="C78" r:id="rId68" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
-    <hyperlink ref="C79" r:id="rId69" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
-    <hyperlink ref="C80" r:id="rId70" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
-    <hyperlink ref="C81" r:id="rId71" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
-    <hyperlink ref="C82" r:id="rId72" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
-    <hyperlink ref="C83" r:id="rId73" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
-    <hyperlink ref="C84" r:id="rId74" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
-    <hyperlink ref="C85" r:id="rId75" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
-    <hyperlink ref="C86" r:id="rId76" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
-    <hyperlink ref="C87" r:id="rId77" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
-    <hyperlink ref="C88" r:id="rId78" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
-    <hyperlink ref="C89" r:id="rId79" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
-    <hyperlink ref="C90" r:id="rId80" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
-    <hyperlink ref="C91" r:id="rId81" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
-    <hyperlink ref="C92" r:id="rId82" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
-    <hyperlink ref="C93" r:id="rId83" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
-    <hyperlink ref="C94" r:id="rId84" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
-    <hyperlink ref="C95" r:id="rId85" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
-    <hyperlink ref="C96" r:id="rId86" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
-    <hyperlink ref="C97" r:id="rId87" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
-    <hyperlink ref="C98" r:id="rId88" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
-    <hyperlink ref="C101" r:id="rId89" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
-    <hyperlink ref="C102" r:id="rId90" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
-    <hyperlink ref="C103" r:id="rId91" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
-    <hyperlink ref="C104" r:id="rId92" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
-    <hyperlink ref="C106" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
-    <hyperlink ref="C107" r:id="rId94" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
-    <hyperlink ref="C108" r:id="rId95" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
-    <hyperlink ref="C109" r:id="rId96" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
-    <hyperlink ref="C110" r:id="rId97" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
-    <hyperlink ref="C111" r:id="rId98" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
-    <hyperlink ref="C113" r:id="rId99" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
-    <hyperlink ref="C114" r:id="rId100" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
-    <hyperlink ref="C115" r:id="rId101" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
-    <hyperlink ref="C116" r:id="rId102" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
-    <hyperlink ref="C117" r:id="rId103" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
-    <hyperlink ref="C118" r:id="rId104" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
-    <hyperlink ref="C119" r:id="rId105" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
-    <hyperlink ref="C120" r:id="rId106" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
-    <hyperlink ref="C121" r:id="rId107" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
-    <hyperlink ref="C122" r:id="rId108" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
-    <hyperlink ref="C123" r:id="rId109" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
-    <hyperlink ref="C124" r:id="rId110" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
-    <hyperlink ref="C125" r:id="rId111" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
-    <hyperlink ref="C126" r:id="rId112" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
-    <hyperlink ref="C127" r:id="rId113" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
-    <hyperlink ref="C128" r:id="rId114" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
-    <hyperlink ref="C129" r:id="rId115" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
-    <hyperlink ref="C130" r:id="rId116" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
-    <hyperlink ref="C131" r:id="rId117" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
-    <hyperlink ref="C132" r:id="rId118" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
-    <hyperlink ref="C133" r:id="rId119" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
-    <hyperlink ref="C134" r:id="rId120" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
-    <hyperlink ref="C135" r:id="rId121" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
-    <hyperlink ref="C136" r:id="rId122" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
-    <hyperlink ref="C105" r:id="rId123" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
-    <hyperlink ref="C112" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
-    <hyperlink ref="C139" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
-    <hyperlink ref="C140" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
-    <hyperlink ref="C141" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
-    <hyperlink ref="C142" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
-    <hyperlink ref="C143" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
-    <hyperlink ref="C144" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
-    <hyperlink ref="C145" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
-    <hyperlink ref="C146" r:id="rId132" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
-    <hyperlink ref="C147" r:id="rId133" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
-    <hyperlink ref="C148" r:id="rId134" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
-    <hyperlink ref="C149" r:id="rId135" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
-    <hyperlink ref="C150" r:id="rId136" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
-    <hyperlink ref="C151" r:id="rId137" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
-    <hyperlink ref="C152" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
-    <hyperlink ref="C153" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
-    <hyperlink ref="C154" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
-    <hyperlink ref="C155" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
-    <hyperlink ref="C156" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
-    <hyperlink ref="C157" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
-    <hyperlink ref="C158" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
-    <hyperlink ref="C159" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
-    <hyperlink ref="C160" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
-    <hyperlink ref="C161" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
-    <hyperlink ref="C162" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
-    <hyperlink ref="C163" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
-    <hyperlink ref="C166" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
-    <hyperlink ref="C167" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
-    <hyperlink ref="C168" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
-    <hyperlink ref="C169" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
-    <hyperlink ref="C170" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
-    <hyperlink ref="C171" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
-    <hyperlink ref="C172" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
-    <hyperlink ref="C173" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
-    <hyperlink ref="C174" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
-    <hyperlink ref="C177" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
-    <hyperlink ref="C178" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
-    <hyperlink ref="C179" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
-    <hyperlink ref="C180" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
-    <hyperlink ref="C181" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
-    <hyperlink ref="C182" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
-    <hyperlink ref="C183" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
-    <hyperlink ref="C184" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
-    <hyperlink ref="C185" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
-    <hyperlink ref="C186" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
-    <hyperlink ref="C187" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
-    <hyperlink ref="C188" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
-    <hyperlink ref="C189" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
-    <hyperlink ref="C190" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
-    <hyperlink ref="C191" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
-    <hyperlink ref="C192" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
-    <hyperlink ref="C193" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
-    <hyperlink ref="C194" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
-    <hyperlink ref="C195" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
-    <hyperlink ref="C196" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
-    <hyperlink ref="C197" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
-    <hyperlink ref="C198" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
-    <hyperlink ref="C199" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
-    <hyperlink ref="C200" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
-    <hyperlink ref="C201" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
-    <hyperlink ref="C202" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
-    <hyperlink ref="C203" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
-    <hyperlink ref="C204" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
-    <hyperlink ref="C205" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
-    <hyperlink ref="C206" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
-    <hyperlink ref="C207" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
-    <hyperlink ref="C208" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
-    <hyperlink ref="C209" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
-    <hyperlink ref="C210" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
-    <hyperlink ref="C211" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
-    <hyperlink ref="C214" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
-    <hyperlink ref="C215" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
-    <hyperlink ref="C216" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
-    <hyperlink ref="C217" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
-    <hyperlink ref="C218" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
-    <hyperlink ref="C219" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
-    <hyperlink ref="C220" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
-    <hyperlink ref="C221" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
-    <hyperlink ref="C222" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
-    <hyperlink ref="C223" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
-    <hyperlink ref="C224" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
-    <hyperlink ref="C225" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
-    <hyperlink ref="C226" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
-    <hyperlink ref="C227" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
-    <hyperlink ref="C228" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
-    <hyperlink ref="C229" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
-    <hyperlink ref="C230" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
-    <hyperlink ref="C231" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
-    <hyperlink ref="C232" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
-    <hyperlink ref="C233" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
-    <hyperlink ref="C234" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
-    <hyperlink ref="C235" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
-    <hyperlink ref="C238" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
-    <hyperlink ref="C239" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
-    <hyperlink ref="C240" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
-    <hyperlink ref="C241" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
-    <hyperlink ref="C242" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
-    <hyperlink ref="C243" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
-    <hyperlink ref="C244" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
-    <hyperlink ref="C245" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
-    <hyperlink ref="C246" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
-    <hyperlink ref="C247" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
-    <hyperlink ref="C248" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
-    <hyperlink ref="C249" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
-    <hyperlink ref="C250" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
-    <hyperlink ref="C251" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
-    <hyperlink ref="C252" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
-    <hyperlink ref="C253" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
-    <hyperlink ref="C254" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
-    <hyperlink ref="C255" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
-    <hyperlink ref="C256" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
-    <hyperlink ref="C257" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
-    <hyperlink ref="C258" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
-    <hyperlink ref="C259" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
-    <hyperlink ref="C260" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
-    <hyperlink ref="C261" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
-    <hyperlink ref="C262" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
-    <hyperlink ref="C263" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
-    <hyperlink ref="C264" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
-    <hyperlink ref="C265" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
-    <hyperlink ref="C266" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
-    <hyperlink ref="C267" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
-    <hyperlink ref="C268" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
-    <hyperlink ref="C269" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
-    <hyperlink ref="C270" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
-    <hyperlink ref="C271" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
-    <hyperlink ref="C272" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
-    <hyperlink ref="C275" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
-    <hyperlink ref="C276" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
-    <hyperlink ref="C277" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
-    <hyperlink ref="C278" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
-    <hyperlink ref="C279" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
-    <hyperlink ref="C280" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
-    <hyperlink ref="C281" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
-    <hyperlink ref="C282" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
-    <hyperlink ref="C283" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
-    <hyperlink ref="C284" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
-    <hyperlink ref="C285" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
-    <hyperlink ref="C286" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
-    <hyperlink ref="C287" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
-    <hyperlink ref="C288" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
-    <hyperlink ref="C289" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
-    <hyperlink ref="C290" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
-    <hyperlink ref="C291" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
-    <hyperlink ref="C292" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
-    <hyperlink ref="C293" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
-    <hyperlink ref="C296" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
-    <hyperlink ref="C297" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
-    <hyperlink ref="C298" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
-    <hyperlink ref="C299" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
-    <hyperlink ref="C300" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
-    <hyperlink ref="C301" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
-    <hyperlink ref="C302" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
-    <hyperlink ref="C303" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
-    <hyperlink ref="C304" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
-    <hyperlink ref="C305" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
-    <hyperlink ref="C306" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
-    <hyperlink ref="C307" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
-    <hyperlink ref="C308" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
-    <hyperlink ref="C309" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
-    <hyperlink ref="C310" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
-    <hyperlink ref="C311" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
-    <hyperlink ref="C312" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
-    <hyperlink ref="C313" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
-    <hyperlink ref="C314" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
-    <hyperlink ref="C315" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
-    <hyperlink ref="C316" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
-    <hyperlink ref="C317" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
-    <hyperlink ref="C318" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
-    <hyperlink ref="C319" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
-    <hyperlink ref="C320" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
-    <hyperlink ref="C321" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
-    <hyperlink ref="C322" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
-    <hyperlink ref="C323" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
-    <hyperlink ref="C324" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
-    <hyperlink ref="C325" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
-    <hyperlink ref="C326" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
-    <hyperlink ref="C327" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
-    <hyperlink ref="C328" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
-    <hyperlink ref="C329" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
-    <hyperlink ref="C330" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
-    <hyperlink ref="C331" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
-    <hyperlink ref="C332" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
-    <hyperlink ref="C333" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
-    <hyperlink ref="C336" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
-    <hyperlink ref="C337" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
-    <hyperlink ref="C338" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
-    <hyperlink ref="C339" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
-    <hyperlink ref="C340" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
-    <hyperlink ref="C341" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
-    <hyperlink ref="C342" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
-    <hyperlink ref="C343" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
-    <hyperlink ref="C344" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
-    <hyperlink ref="C345" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
-    <hyperlink ref="C346" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
-    <hyperlink ref="C347" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
-    <hyperlink ref="C348" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
-    <hyperlink ref="C349" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
-    <hyperlink ref="C350" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
-    <hyperlink ref="C351" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
-    <hyperlink ref="C352" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
-    <hyperlink ref="C353" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
-    <hyperlink ref="C357" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
-    <hyperlink ref="C358" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
-    <hyperlink ref="C359" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
-    <hyperlink ref="C360" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
-    <hyperlink ref="C361" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
-    <hyperlink ref="C362" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
-    <hyperlink ref="C363" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
-    <hyperlink ref="C364" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
-    <hyperlink ref="C365" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
-    <hyperlink ref="C366" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
-    <hyperlink ref="C367" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
-    <hyperlink ref="C368" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
-    <hyperlink ref="C369" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
-    <hyperlink ref="C370" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
-    <hyperlink ref="C371" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
-    <hyperlink ref="C372" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
-    <hyperlink ref="C373" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
-    <hyperlink ref="C374" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
-    <hyperlink ref="C375" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
-    <hyperlink ref="C376" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
-    <hyperlink ref="C377" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
-    <hyperlink ref="C378" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
-    <hyperlink ref="C379" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
-    <hyperlink ref="C380" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
-    <hyperlink ref="C381" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
-    <hyperlink ref="C382" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
-    <hyperlink ref="C383" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
-    <hyperlink ref="C384" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
-    <hyperlink ref="C385" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
-    <hyperlink ref="C386" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
-    <hyperlink ref="C387" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
-    <hyperlink ref="C388" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
-    <hyperlink ref="C389" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
-    <hyperlink ref="C390" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
-    <hyperlink ref="C391" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
-    <hyperlink ref="C392" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
-    <hyperlink ref="C393" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
-    <hyperlink ref="C394" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
-    <hyperlink ref="C396" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
-    <hyperlink ref="C395" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
-    <hyperlink ref="C397" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
-    <hyperlink ref="C398" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
-    <hyperlink ref="C399" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
-    <hyperlink ref="C402" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
-    <hyperlink ref="C403" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
-    <hyperlink ref="C404" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
-    <hyperlink ref="C405" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
-    <hyperlink ref="C406" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
-    <hyperlink ref="C407" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
-    <hyperlink ref="C410" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
-    <hyperlink ref="C411" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
-    <hyperlink ref="C412" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
-    <hyperlink ref="C413" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
-    <hyperlink ref="C414" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
-    <hyperlink ref="C415" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
-    <hyperlink ref="C416" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
-    <hyperlink ref="C417" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
-    <hyperlink ref="C418" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
-    <hyperlink ref="C419" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
-    <hyperlink ref="C420" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
-    <hyperlink ref="C421" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
-    <hyperlink ref="C422" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
-    <hyperlink ref="C423" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
-    <hyperlink ref="C424" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
-    <hyperlink ref="C425" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
-    <hyperlink ref="C426" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
-    <hyperlink ref="C427" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
-    <hyperlink ref="C428" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
-    <hyperlink ref="C429" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
-    <hyperlink ref="C430" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
-    <hyperlink ref="C431" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
-    <hyperlink ref="C432" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
-    <hyperlink ref="C433" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
-    <hyperlink ref="C434" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
-    <hyperlink ref="C435" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
-    <hyperlink ref="C436" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
-    <hyperlink ref="C437" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
-    <hyperlink ref="C438" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
-    <hyperlink ref="C439" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
-    <hyperlink ref="C440" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
-    <hyperlink ref="C441" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
-    <hyperlink ref="C442" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
-    <hyperlink ref="C443" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
-    <hyperlink ref="C444" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
-    <hyperlink ref="C445" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
-    <hyperlink ref="C446" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
-    <hyperlink ref="C447" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
-    <hyperlink ref="C448" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
-    <hyperlink ref="C449" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
-    <hyperlink ref="C451" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
-    <hyperlink ref="C450" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
-    <hyperlink ref="C452" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
-    <hyperlink ref="C453" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
-    <hyperlink ref="C454" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
-    <hyperlink ref="C455" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
-    <hyperlink ref="C456" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
-    <hyperlink ref="C457" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
-    <hyperlink ref="C458" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
-    <hyperlink ref="C459" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
-    <hyperlink ref="C460" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
-    <hyperlink ref="C461" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
-    <hyperlink ref="C462" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
-    <hyperlink ref="C469" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
-    <hyperlink ref="C468" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
-    <hyperlink ref="C467" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
-    <hyperlink ref="C466" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
-    <hyperlink ref="C465" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
-    <hyperlink ref="C464" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
-    <hyperlink ref="C463" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
-    <hyperlink ref="C472" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
-    <hyperlink ref="C473" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
-    <hyperlink ref="C474" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
-    <hyperlink ref="C475" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
-    <hyperlink ref="C476" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
-    <hyperlink ref="C477" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
-    <hyperlink ref="C478" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
-    <hyperlink ref="C481" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
-    <hyperlink ref="C479" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
-    <hyperlink ref="C480" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
-    <hyperlink ref="C356" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
-    <hyperlink ref="C2" r:id="rId446" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
+    <hyperlink ref="C49" r:id="rId41" xr:uid="{F9B53127-FC98-FE43-B53F-BFDBCE2A4427}"/>
+    <hyperlink ref="C51" r:id="rId42" xr:uid="{40685BBC-CE24-624E-9ABB-98490B7DE0E4}"/>
+    <hyperlink ref="C52" r:id="rId43" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
+    <hyperlink ref="C53" r:id="rId44" xr:uid="{E8C1FE00-7B4B-5745-8E4B-CD44B6C749E3}"/>
+    <hyperlink ref="C54" r:id="rId45" xr:uid="{FDE181B1-57B0-7C4B-A189-C7C6E4EAEF99}"/>
+    <hyperlink ref="C57" r:id="rId46" xr:uid="{FE85FD72-4FC9-334E-8205-9E8B238954EB}"/>
+    <hyperlink ref="C58" r:id="rId47" xr:uid="{7630AD76-7E6B-8C4A-BA33-A62EBB042215}"/>
+    <hyperlink ref="C59" r:id="rId48" xr:uid="{2A738B70-CBF0-CC40-8B05-A271822B3F1A}"/>
+    <hyperlink ref="C61" r:id="rId49" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
+    <hyperlink ref="C62" r:id="rId50" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
+    <hyperlink ref="C63" r:id="rId51" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
+    <hyperlink ref="C64" r:id="rId52" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
+    <hyperlink ref="C65" r:id="rId53" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
+    <hyperlink ref="C66" r:id="rId54" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
+    <hyperlink ref="C67" r:id="rId55" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
+    <hyperlink ref="C68" r:id="rId56" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
+    <hyperlink ref="C69" r:id="rId57" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
+    <hyperlink ref="C70" r:id="rId58" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
+    <hyperlink ref="C71" r:id="rId59" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
+    <hyperlink ref="C72" r:id="rId60" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
+    <hyperlink ref="C73" r:id="rId61" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
+    <hyperlink ref="C74" r:id="rId62" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
+    <hyperlink ref="C75" r:id="rId63" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
+    <hyperlink ref="C76" r:id="rId64" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
+    <hyperlink ref="C77" r:id="rId65" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
+    <hyperlink ref="C78" r:id="rId66" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
+    <hyperlink ref="C79" r:id="rId67" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
+    <hyperlink ref="C80" r:id="rId68" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
+    <hyperlink ref="C81" r:id="rId69" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
+    <hyperlink ref="C82" r:id="rId70" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
+    <hyperlink ref="C83" r:id="rId71" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
+    <hyperlink ref="C84" r:id="rId72" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
+    <hyperlink ref="C85" r:id="rId73" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
+    <hyperlink ref="C86" r:id="rId74" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
+    <hyperlink ref="C87" r:id="rId75" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
+    <hyperlink ref="C88" r:id="rId76" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
+    <hyperlink ref="C89" r:id="rId77" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
+    <hyperlink ref="C90" r:id="rId78" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
+    <hyperlink ref="C91" r:id="rId79" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
+    <hyperlink ref="C92" r:id="rId80" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
+    <hyperlink ref="C93" r:id="rId81" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
+    <hyperlink ref="C94" r:id="rId82" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
+    <hyperlink ref="C95" r:id="rId83" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
+    <hyperlink ref="C96" r:id="rId84" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
+    <hyperlink ref="C97" r:id="rId85" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
+    <hyperlink ref="C98" r:id="rId86" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
+    <hyperlink ref="C99" r:id="rId87" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
+    <hyperlink ref="C102" r:id="rId88" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
+    <hyperlink ref="C103" r:id="rId89" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
+    <hyperlink ref="C104" r:id="rId90" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
+    <hyperlink ref="C105" r:id="rId91" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
+    <hyperlink ref="C107" r:id="rId92" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
+    <hyperlink ref="C108" r:id="rId93" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
+    <hyperlink ref="C109" r:id="rId94" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
+    <hyperlink ref="C110" r:id="rId95" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
+    <hyperlink ref="C111" r:id="rId96" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
+    <hyperlink ref="C112" r:id="rId97" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
+    <hyperlink ref="C114" r:id="rId98" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
+    <hyperlink ref="C115" r:id="rId99" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
+    <hyperlink ref="C116" r:id="rId100" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
+    <hyperlink ref="C117" r:id="rId101" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
+    <hyperlink ref="C118" r:id="rId102" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
+    <hyperlink ref="C119" r:id="rId103" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
+    <hyperlink ref="C120" r:id="rId104" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
+    <hyperlink ref="C121" r:id="rId105" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
+    <hyperlink ref="C122" r:id="rId106" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
+    <hyperlink ref="C123" r:id="rId107" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
+    <hyperlink ref="C124" r:id="rId108" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
+    <hyperlink ref="C125" r:id="rId109" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
+    <hyperlink ref="C126" r:id="rId110" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
+    <hyperlink ref="C127" r:id="rId111" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
+    <hyperlink ref="C128" r:id="rId112" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
+    <hyperlink ref="C129" r:id="rId113" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
+    <hyperlink ref="C130" r:id="rId114" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
+    <hyperlink ref="C131" r:id="rId115" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
+    <hyperlink ref="C132" r:id="rId116" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
+    <hyperlink ref="C133" r:id="rId117" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
+    <hyperlink ref="C134" r:id="rId118" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
+    <hyperlink ref="C135" r:id="rId119" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
+    <hyperlink ref="C136" r:id="rId120" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
+    <hyperlink ref="C137" r:id="rId121" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
+    <hyperlink ref="C106" r:id="rId122" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
+    <hyperlink ref="C113" r:id="rId123" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
+    <hyperlink ref="C140" r:id="rId124" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
+    <hyperlink ref="C141" r:id="rId125" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
+    <hyperlink ref="C142" r:id="rId126" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
+    <hyperlink ref="C143" r:id="rId127" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
+    <hyperlink ref="C144" r:id="rId128" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
+    <hyperlink ref="C145" r:id="rId129" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
+    <hyperlink ref="C146" r:id="rId130" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
+    <hyperlink ref="C147" r:id="rId131" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
+    <hyperlink ref="C148" r:id="rId132" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
+    <hyperlink ref="C149" r:id="rId133" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
+    <hyperlink ref="C150" r:id="rId134" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
+    <hyperlink ref="C151" r:id="rId135" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
+    <hyperlink ref="C152" r:id="rId136" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
+    <hyperlink ref="C153" r:id="rId137" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
+    <hyperlink ref="C154" r:id="rId138" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
+    <hyperlink ref="C155" r:id="rId139" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
+    <hyperlink ref="C156" r:id="rId140" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
+    <hyperlink ref="C157" r:id="rId141" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
+    <hyperlink ref="C158" r:id="rId142" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
+    <hyperlink ref="C159" r:id="rId143" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
+    <hyperlink ref="C160" r:id="rId144" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
+    <hyperlink ref="C161" r:id="rId145" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
+    <hyperlink ref="C162" r:id="rId146" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
+    <hyperlink ref="C163" r:id="rId147" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
+    <hyperlink ref="C164" r:id="rId148" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
+    <hyperlink ref="C167" r:id="rId149" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
+    <hyperlink ref="C168" r:id="rId150" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
+    <hyperlink ref="C169" r:id="rId151" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
+    <hyperlink ref="C170" r:id="rId152" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
+    <hyperlink ref="C171" r:id="rId153" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
+    <hyperlink ref="C172" r:id="rId154" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
+    <hyperlink ref="C173" r:id="rId155" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
+    <hyperlink ref="C174" r:id="rId156" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
+    <hyperlink ref="C175" r:id="rId157" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
+    <hyperlink ref="C178" r:id="rId158" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
+    <hyperlink ref="C179" r:id="rId159" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
+    <hyperlink ref="C180" r:id="rId160" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
+    <hyperlink ref="C181" r:id="rId161" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
+    <hyperlink ref="C182" r:id="rId162" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
+    <hyperlink ref="C183" r:id="rId163" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
+    <hyperlink ref="C184" r:id="rId164" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
+    <hyperlink ref="C185" r:id="rId165" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
+    <hyperlink ref="C186" r:id="rId166" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
+    <hyperlink ref="C187" r:id="rId167" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
+    <hyperlink ref="C188" r:id="rId168" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
+    <hyperlink ref="C189" r:id="rId169" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
+    <hyperlink ref="C190" r:id="rId170" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
+    <hyperlink ref="C191" r:id="rId171" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
+    <hyperlink ref="C192" r:id="rId172" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
+    <hyperlink ref="C193" r:id="rId173" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
+    <hyperlink ref="C194" r:id="rId174" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
+    <hyperlink ref="C195" r:id="rId175" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
+    <hyperlink ref="C196" r:id="rId176" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
+    <hyperlink ref="C197" r:id="rId177" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
+    <hyperlink ref="C198" r:id="rId178" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
+    <hyperlink ref="C199" r:id="rId179" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
+    <hyperlink ref="C200" r:id="rId180" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
+    <hyperlink ref="C201" r:id="rId181" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
+    <hyperlink ref="C202" r:id="rId182" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
+    <hyperlink ref="C203" r:id="rId183" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
+    <hyperlink ref="C204" r:id="rId184" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
+    <hyperlink ref="C205" r:id="rId185" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
+    <hyperlink ref="C206" r:id="rId186" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
+    <hyperlink ref="C207" r:id="rId187" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
+    <hyperlink ref="C208" r:id="rId188" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
+    <hyperlink ref="C209" r:id="rId189" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
+    <hyperlink ref="C210" r:id="rId190" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
+    <hyperlink ref="C211" r:id="rId191" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
+    <hyperlink ref="C212" r:id="rId192" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
+    <hyperlink ref="C215" r:id="rId193" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
+    <hyperlink ref="C216" r:id="rId194" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
+    <hyperlink ref="C217" r:id="rId195" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
+    <hyperlink ref="C218" r:id="rId196" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
+    <hyperlink ref="C219" r:id="rId197" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
+    <hyperlink ref="C220" r:id="rId198" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
+    <hyperlink ref="C221" r:id="rId199" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
+    <hyperlink ref="C222" r:id="rId200" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
+    <hyperlink ref="C223" r:id="rId201" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
+    <hyperlink ref="C224" r:id="rId202" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
+    <hyperlink ref="C225" r:id="rId203" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
+    <hyperlink ref="C226" r:id="rId204" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
+    <hyperlink ref="C227" r:id="rId205" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
+    <hyperlink ref="C228" r:id="rId206" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
+    <hyperlink ref="C229" r:id="rId207" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
+    <hyperlink ref="C230" r:id="rId208" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
+    <hyperlink ref="C231" r:id="rId209" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
+    <hyperlink ref="C232" r:id="rId210" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
+    <hyperlink ref="C233" r:id="rId211" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
+    <hyperlink ref="C234" r:id="rId212" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
+    <hyperlink ref="C235" r:id="rId213" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
+    <hyperlink ref="C236" r:id="rId214" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
+    <hyperlink ref="C239" r:id="rId215" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
+    <hyperlink ref="C240" r:id="rId216" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
+    <hyperlink ref="C241" r:id="rId217" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
+    <hyperlink ref="C242" r:id="rId218" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
+    <hyperlink ref="C243" r:id="rId219" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
+    <hyperlink ref="C244" r:id="rId220" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
+    <hyperlink ref="C245" r:id="rId221" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
+    <hyperlink ref="C246" r:id="rId222" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
+    <hyperlink ref="C247" r:id="rId223" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
+    <hyperlink ref="C248" r:id="rId224" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
+    <hyperlink ref="C249" r:id="rId225" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
+    <hyperlink ref="C250" r:id="rId226" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
+    <hyperlink ref="C251" r:id="rId227" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
+    <hyperlink ref="C252" r:id="rId228" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
+    <hyperlink ref="C253" r:id="rId229" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
+    <hyperlink ref="C254" r:id="rId230" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
+    <hyperlink ref="C255" r:id="rId231" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
+    <hyperlink ref="C256" r:id="rId232" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
+    <hyperlink ref="C257" r:id="rId233" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
+    <hyperlink ref="C258" r:id="rId234" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
+    <hyperlink ref="C259" r:id="rId235" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
+    <hyperlink ref="C260" r:id="rId236" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
+    <hyperlink ref="C261" r:id="rId237" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
+    <hyperlink ref="C262" r:id="rId238" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
+    <hyperlink ref="C263" r:id="rId239" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
+    <hyperlink ref="C264" r:id="rId240" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
+    <hyperlink ref="C265" r:id="rId241" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
+    <hyperlink ref="C266" r:id="rId242" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
+    <hyperlink ref="C267" r:id="rId243" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
+    <hyperlink ref="C268" r:id="rId244" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
+    <hyperlink ref="C269" r:id="rId245" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
+    <hyperlink ref="C270" r:id="rId246" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
+    <hyperlink ref="C271" r:id="rId247" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
+    <hyperlink ref="C272" r:id="rId248" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
+    <hyperlink ref="C273" r:id="rId249" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
+    <hyperlink ref="C276" r:id="rId250" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
+    <hyperlink ref="C277" r:id="rId251" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
+    <hyperlink ref="C278" r:id="rId252" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
+    <hyperlink ref="C279" r:id="rId253" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
+    <hyperlink ref="C280" r:id="rId254" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
+    <hyperlink ref="C281" r:id="rId255" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
+    <hyperlink ref="C282" r:id="rId256" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
+    <hyperlink ref="C283" r:id="rId257" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
+    <hyperlink ref="C284" r:id="rId258" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
+    <hyperlink ref="C285" r:id="rId259" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
+    <hyperlink ref="C286" r:id="rId260" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
+    <hyperlink ref="C287" r:id="rId261" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
+    <hyperlink ref="C288" r:id="rId262" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
+    <hyperlink ref="C289" r:id="rId263" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
+    <hyperlink ref="C290" r:id="rId264" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
+    <hyperlink ref="C291" r:id="rId265" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
+    <hyperlink ref="C292" r:id="rId266" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
+    <hyperlink ref="C293" r:id="rId267" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
+    <hyperlink ref="C294" r:id="rId268" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
+    <hyperlink ref="C297" r:id="rId269" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
+    <hyperlink ref="C298" r:id="rId270" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
+    <hyperlink ref="C299" r:id="rId271" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
+    <hyperlink ref="C300" r:id="rId272" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
+    <hyperlink ref="C301" r:id="rId273" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
+    <hyperlink ref="C302" r:id="rId274" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
+    <hyperlink ref="C303" r:id="rId275" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
+    <hyperlink ref="C304" r:id="rId276" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
+    <hyperlink ref="C305" r:id="rId277" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
+    <hyperlink ref="C306" r:id="rId278" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
+    <hyperlink ref="C307" r:id="rId279" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
+    <hyperlink ref="C308" r:id="rId280" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
+    <hyperlink ref="C309" r:id="rId281" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
+    <hyperlink ref="C310" r:id="rId282" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
+    <hyperlink ref="C311" r:id="rId283" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
+    <hyperlink ref="C312" r:id="rId284" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
+    <hyperlink ref="C313" r:id="rId285" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
+    <hyperlink ref="C314" r:id="rId286" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
+    <hyperlink ref="C315" r:id="rId287" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
+    <hyperlink ref="C316" r:id="rId288" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
+    <hyperlink ref="C317" r:id="rId289" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
+    <hyperlink ref="C318" r:id="rId290" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
+    <hyperlink ref="C319" r:id="rId291" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
+    <hyperlink ref="C320" r:id="rId292" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
+    <hyperlink ref="C321" r:id="rId293" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
+    <hyperlink ref="C322" r:id="rId294" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
+    <hyperlink ref="C323" r:id="rId295" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
+    <hyperlink ref="C324" r:id="rId296" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
+    <hyperlink ref="C325" r:id="rId297" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
+    <hyperlink ref="C326" r:id="rId298" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
+    <hyperlink ref="C327" r:id="rId299" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
+    <hyperlink ref="C328" r:id="rId300" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
+    <hyperlink ref="C329" r:id="rId301" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
+    <hyperlink ref="C330" r:id="rId302" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
+    <hyperlink ref="C331" r:id="rId303" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
+    <hyperlink ref="C332" r:id="rId304" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
+    <hyperlink ref="C333" r:id="rId305" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
+    <hyperlink ref="C334" r:id="rId306" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
+    <hyperlink ref="C337" r:id="rId307" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
+    <hyperlink ref="C338" r:id="rId308" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
+    <hyperlink ref="C339" r:id="rId309" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
+    <hyperlink ref="C340" r:id="rId310" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
+    <hyperlink ref="C341" r:id="rId311" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
+    <hyperlink ref="C342" r:id="rId312" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
+    <hyperlink ref="C343" r:id="rId313" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
+    <hyperlink ref="C344" r:id="rId314" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
+    <hyperlink ref="C345" r:id="rId315" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
+    <hyperlink ref="C346" r:id="rId316" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
+    <hyperlink ref="C347" r:id="rId317" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
+    <hyperlink ref="C348" r:id="rId318" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
+    <hyperlink ref="C349" r:id="rId319" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
+    <hyperlink ref="C350" r:id="rId320" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
+    <hyperlink ref="C351" r:id="rId321" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
+    <hyperlink ref="C352" r:id="rId322" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
+    <hyperlink ref="C353" r:id="rId323" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
+    <hyperlink ref="C354" r:id="rId324" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
+    <hyperlink ref="C358" r:id="rId325" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
+    <hyperlink ref="C359" r:id="rId326" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
+    <hyperlink ref="C360" r:id="rId327" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
+    <hyperlink ref="C361" r:id="rId328" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
+    <hyperlink ref="C362" r:id="rId329" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
+    <hyperlink ref="C363" r:id="rId330" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
+    <hyperlink ref="C364" r:id="rId331" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
+    <hyperlink ref="C365" r:id="rId332" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
+    <hyperlink ref="C366" r:id="rId333" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
+    <hyperlink ref="C367" r:id="rId334" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
+    <hyperlink ref="C368" r:id="rId335" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
+    <hyperlink ref="C369" r:id="rId336" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
+    <hyperlink ref="C370" r:id="rId337" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
+    <hyperlink ref="C371" r:id="rId338" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
+    <hyperlink ref="C372" r:id="rId339" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
+    <hyperlink ref="C373" r:id="rId340" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
+    <hyperlink ref="C374" r:id="rId341" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
+    <hyperlink ref="C375" r:id="rId342" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
+    <hyperlink ref="C376" r:id="rId343" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
+    <hyperlink ref="C377" r:id="rId344" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
+    <hyperlink ref="C378" r:id="rId345" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
+    <hyperlink ref="C379" r:id="rId346" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
+    <hyperlink ref="C380" r:id="rId347" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
+    <hyperlink ref="C381" r:id="rId348" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
+    <hyperlink ref="C382" r:id="rId349" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
+    <hyperlink ref="C383" r:id="rId350" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
+    <hyperlink ref="C384" r:id="rId351" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
+    <hyperlink ref="C385" r:id="rId352" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
+    <hyperlink ref="C386" r:id="rId353" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
+    <hyperlink ref="C387" r:id="rId354" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
+    <hyperlink ref="C388" r:id="rId355" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
+    <hyperlink ref="C389" r:id="rId356" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
+    <hyperlink ref="C390" r:id="rId357" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
+    <hyperlink ref="C391" r:id="rId358" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
+    <hyperlink ref="C392" r:id="rId359" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
+    <hyperlink ref="C393" r:id="rId360" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
+    <hyperlink ref="C394" r:id="rId361" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
+    <hyperlink ref="C395" r:id="rId362" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
+    <hyperlink ref="C397" r:id="rId363" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
+    <hyperlink ref="C396" r:id="rId364" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
+    <hyperlink ref="C398" r:id="rId365" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
+    <hyperlink ref="C399" r:id="rId366" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
+    <hyperlink ref="C400" r:id="rId367" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
+    <hyperlink ref="C403" r:id="rId368" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
+    <hyperlink ref="C404" r:id="rId369" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
+    <hyperlink ref="C405" r:id="rId370" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
+    <hyperlink ref="C406" r:id="rId371" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
+    <hyperlink ref="C407" r:id="rId372" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
+    <hyperlink ref="C408" r:id="rId373" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
+    <hyperlink ref="C411" r:id="rId374" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
+    <hyperlink ref="C412" r:id="rId375" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
+    <hyperlink ref="C413" r:id="rId376" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
+    <hyperlink ref="C414" r:id="rId377" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
+    <hyperlink ref="C415" r:id="rId378" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
+    <hyperlink ref="C416" r:id="rId379" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
+    <hyperlink ref="C417" r:id="rId380" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
+    <hyperlink ref="C418" r:id="rId381" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
+    <hyperlink ref="C419" r:id="rId382" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
+    <hyperlink ref="C420" r:id="rId383" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
+    <hyperlink ref="C421" r:id="rId384" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
+    <hyperlink ref="C422" r:id="rId385" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
+    <hyperlink ref="C423" r:id="rId386" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
+    <hyperlink ref="C424" r:id="rId387" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
+    <hyperlink ref="C425" r:id="rId388" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
+    <hyperlink ref="C426" r:id="rId389" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
+    <hyperlink ref="C427" r:id="rId390" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
+    <hyperlink ref="C428" r:id="rId391" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
+    <hyperlink ref="C429" r:id="rId392" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
+    <hyperlink ref="C430" r:id="rId393" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
+    <hyperlink ref="C431" r:id="rId394" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
+    <hyperlink ref="C432" r:id="rId395" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
+    <hyperlink ref="C433" r:id="rId396" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
+    <hyperlink ref="C434" r:id="rId397" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
+    <hyperlink ref="C435" r:id="rId398" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
+    <hyperlink ref="C436" r:id="rId399" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
+    <hyperlink ref="C437" r:id="rId400" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
+    <hyperlink ref="C438" r:id="rId401" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
+    <hyperlink ref="C439" r:id="rId402" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
+    <hyperlink ref="C440" r:id="rId403" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
+    <hyperlink ref="C441" r:id="rId404" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
+    <hyperlink ref="C442" r:id="rId405" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
+    <hyperlink ref="C443" r:id="rId406" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
+    <hyperlink ref="C444" r:id="rId407" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
+    <hyperlink ref="C445" r:id="rId408" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
+    <hyperlink ref="C446" r:id="rId409" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
+    <hyperlink ref="C447" r:id="rId410" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
+    <hyperlink ref="C448" r:id="rId411" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
+    <hyperlink ref="C449" r:id="rId412" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
+    <hyperlink ref="C450" r:id="rId413" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
+    <hyperlink ref="C452" r:id="rId414" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
+    <hyperlink ref="C451" r:id="rId415" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
+    <hyperlink ref="C453" r:id="rId416" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
+    <hyperlink ref="C454" r:id="rId417" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
+    <hyperlink ref="C455" r:id="rId418" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
+    <hyperlink ref="C456" r:id="rId419" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
+    <hyperlink ref="C457" r:id="rId420" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
+    <hyperlink ref="C458" r:id="rId421" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
+    <hyperlink ref="C459" r:id="rId422" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
+    <hyperlink ref="C460" r:id="rId423" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
+    <hyperlink ref="C461" r:id="rId424" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
+    <hyperlink ref="C462" r:id="rId425" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
+    <hyperlink ref="C463" r:id="rId426" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
+    <hyperlink ref="C470" r:id="rId427" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
+    <hyperlink ref="C469" r:id="rId428" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
+    <hyperlink ref="C468" r:id="rId429" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
+    <hyperlink ref="C467" r:id="rId430" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
+    <hyperlink ref="C466" r:id="rId431" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
+    <hyperlink ref="C465" r:id="rId432" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
+    <hyperlink ref="C464" r:id="rId433" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
+    <hyperlink ref="C473" r:id="rId434" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
+    <hyperlink ref="C474" r:id="rId435" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
+    <hyperlink ref="C475" r:id="rId436" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
+    <hyperlink ref="C476" r:id="rId437" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
+    <hyperlink ref="C477" r:id="rId438" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
+    <hyperlink ref="C478" r:id="rId439" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
+    <hyperlink ref="C479" r:id="rId440" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
+    <hyperlink ref="C482" r:id="rId441" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
+    <hyperlink ref="C480" r:id="rId442" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
+    <hyperlink ref="C481" r:id="rId443" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
+    <hyperlink ref="C357" r:id="rId444" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
+    <hyperlink ref="C2" r:id="rId445" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
+    <hyperlink ref="C48" r:id="rId446" xr:uid="{19F82FAE-3F5E-0D48-B1C8-C3831F366191}"/>
+    <hyperlink ref="C50" r:id="rId447" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaurav/Documents/30DaysChallenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E553654-68E0-9D41-8E03-64E6236C26EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C711B7DC-664E-944E-A782-81D492869DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="0" windowWidth="27640" windowHeight="16060" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1896,8 +1896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2141,7 +2141,7 @@
       <c r="C20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2806,7 +2806,7 @@
       <c r="C70" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       <c r="C71" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D71" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2834,7 +2834,7 @@
       <c r="C72" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D72" s="11" t="s">
         <v>4</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaurav/Documents/30DaysChallenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C711B7DC-664E-944E-A782-81D492869DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EAFEEE4-90D3-8649-ACA9-7534FEB4ABE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="0" windowWidth="27640" windowHeight="16060" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1896,8 +1896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2890,7 +2890,7 @@
       <c r="C76" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D76" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2904,7 +2904,7 @@
       <c r="C77" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D77" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3225,28 +3225,37 @@
       <c r="D101" s="4"/>
     </row>
     <row r="102" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A102" s="12">
+        <v>1</v>
+      </c>
       <c r="B102" s="5" t="s">
         <v>97</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D102" s="4" t="s">
+      <c r="D102" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A103" s="12">
+        <v>2</v>
+      </c>
       <c r="B103" s="5" t="s">
         <v>97</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="D103" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A104" s="12">
+        <v>3</v>
+      </c>
       <c r="B104" s="5" t="s">
         <v>97</v>
       </c>
@@ -3258,28 +3267,37 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A105" s="12">
+        <v>4</v>
+      </c>
       <c r="B105" s="5" t="s">
         <v>97</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D105" s="4" t="s">
+      <c r="D105" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A106" s="12">
+        <v>5</v>
+      </c>
       <c r="B106" s="5" t="s">
         <v>97</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D106" s="4" t="s">
+      <c r="D106" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A107" s="12">
+        <v>6</v>
+      </c>
       <c r="B107" s="5" t="s">
         <v>97</v>
       </c>
@@ -3291,17 +3309,23 @@
       </c>
     </row>
     <row r="108" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A108" s="12">
+        <v>7</v>
+      </c>
       <c r="B108" s="5" t="s">
         <v>97</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="D108" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A109" s="12">
+        <v>8</v>
+      </c>
       <c r="B109" s="5" t="s">
         <v>97</v>
       </c>
@@ -3313,6 +3337,9 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A110" s="12">
+        <v>9</v>
+      </c>
       <c r="B110" s="5" t="s">
         <v>97</v>
       </c>
@@ -3324,50 +3351,65 @@
       </c>
     </row>
     <row r="111" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A111" s="12">
+        <v>10</v>
+      </c>
       <c r="B111" s="5" t="s">
         <v>97</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D111" s="4" t="s">
+      <c r="D111" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A112" s="12">
+        <v>11</v>
+      </c>
       <c r="B112" s="5" t="s">
         <v>97</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D112" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="D112" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A113" s="12">
+        <v>12</v>
+      </c>
       <c r="B113" s="5" t="s">
         <v>97</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D113" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="D113" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A114" s="12">
+        <v>13</v>
+      </c>
       <c r="B114" s="5" t="s">
         <v>97</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D114" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="115" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="D114" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A115" s="12">
+        <v>14</v>
+      </c>
       <c r="B115" s="5" t="s">
         <v>97</v>
       </c>
@@ -3378,29 +3420,38 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A116" s="12">
+        <v>15</v>
+      </c>
       <c r="B116" s="5" t="s">
         <v>97</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D116" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="117" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="D116" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A117" s="12">
+        <v>16</v>
+      </c>
       <c r="B117" s="5" t="s">
         <v>97</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D117" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="118" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="D117" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A118" s="12">
+        <v>17</v>
+      </c>
       <c r="B118" s="5" t="s">
         <v>97</v>
       </c>
@@ -3411,18 +3462,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A119" s="12">
+        <v>18</v>
+      </c>
       <c r="B119" s="5" t="s">
         <v>97</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D119" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="D119" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A120" s="12">
+        <v>19</v>
+      </c>
       <c r="B120" s="5" t="s">
         <v>97</v>
       </c>
@@ -3433,7 +3490,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A121" s="12">
+        <v>20</v>
+      </c>
       <c r="B121" s="5" t="s">
         <v>97</v>
       </c>
@@ -3444,7 +3504,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A122" s="12">
+        <v>21</v>
+      </c>
       <c r="B122" s="5" t="s">
         <v>97</v>
       </c>
@@ -3455,7 +3518,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A123" s="12">
+        <v>22</v>
+      </c>
       <c r="B123" s="5" t="s">
         <v>97</v>
       </c>
@@ -3466,7 +3532,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A124" s="12">
+        <v>23</v>
+      </c>
       <c r="B124" s="5" t="s">
         <v>97</v>
       </c>
@@ -3477,7 +3546,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A125" s="12">
+        <v>24</v>
+      </c>
       <c r="B125" s="5" t="s">
         <v>97</v>
       </c>
@@ -3488,7 +3560,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A126" s="12">
+        <v>25</v>
+      </c>
       <c r="B126" s="5" t="s">
         <v>97</v>
       </c>
@@ -3499,7 +3574,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A127" s="12">
+        <v>26</v>
+      </c>
       <c r="B127" s="5" t="s">
         <v>97</v>
       </c>
@@ -3510,7 +3588,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A128" s="12">
+        <v>27</v>
+      </c>
       <c r="B128" s="5" t="s">
         <v>97</v>
       </c>
@@ -3521,7 +3602,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A129" s="12">
+        <v>28</v>
+      </c>
       <c r="B129" s="5" t="s">
         <v>97</v>
       </c>
@@ -3532,7 +3616,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A130" s="12">
+        <v>29</v>
+      </c>
       <c r="B130" s="5" t="s">
         <v>97</v>
       </c>
@@ -3543,7 +3630,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A131" s="12">
+        <v>30</v>
+      </c>
       <c r="B131" s="5" t="s">
         <v>97</v>
       </c>
@@ -3554,7 +3644,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A132" s="12">
+        <v>31</v>
+      </c>
       <c r="B132" s="5" t="s">
         <v>97</v>
       </c>
@@ -3565,7 +3658,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A133" s="12">
+        <v>32</v>
+      </c>
       <c r="B133" s="5" t="s">
         <v>97</v>
       </c>
@@ -3576,7 +3672,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A134" s="12">
+        <v>33</v>
+      </c>
       <c r="B134" s="5" t="s">
         <v>97</v>
       </c>
@@ -3587,7 +3686,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A135" s="12">
+        <v>34</v>
+      </c>
       <c r="B135" s="5" t="s">
         <v>97</v>
       </c>
@@ -3598,7 +3700,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A136" s="12">
+        <v>35</v>
+      </c>
       <c r="B136" s="5" t="s">
         <v>97</v>
       </c>
@@ -3609,7 +3714,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A137" s="12">
+        <v>36</v>
+      </c>
       <c r="B137" s="5" t="s">
         <v>97</v>
       </c>
@@ -3620,11 +3728,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="C139" s="7"/>
       <c r="D139" s="4"/>
     </row>
-    <row r="140" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B140" s="8" t="s">
         <v>134</v>
       </c>
@@ -3635,7 +3743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B141" s="8" t="s">
         <v>134</v>
       </c>
@@ -3646,7 +3754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B142" s="8" t="s">
         <v>134</v>
       </c>
@@ -3657,7 +3765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B143" s="8" t="s">
         <v>134</v>
       </c>
@@ -3668,7 +3776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B144" s="8" t="s">
         <v>134</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaurav/Documents/30DaysChallenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EAFEEE4-90D3-8649-ACA9-7534FEB4ABE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B8254B-59D5-6B40-A82C-DB56A79628A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="0" windowWidth="27640" windowHeight="16060" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="468">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1432,6 +1432,9 @@
   </si>
   <si>
     <t>…</t>
+  </si>
+  <si>
+    <t>////</t>
   </si>
 </sst>
 </file>
@@ -1896,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="D122" sqref="D122"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="G111" sqref="G111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -3177,7 +3180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A97" s="12">
         <v>41</v>
       </c>
@@ -3191,7 +3194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A98" s="12">
         <v>42</v>
       </c>
@@ -3205,7 +3208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A99" s="12">
         <v>43</v>
       </c>
@@ -3219,12 +3222,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="B101" s="8"/>
       <c r="C101" s="7"/>
       <c r="D101" s="4"/>
     </row>
-    <row r="102" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A102" s="12">
         <v>1</v>
       </c>
@@ -3238,7 +3241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A103" s="12">
         <v>2</v>
       </c>
@@ -3252,7 +3255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A104" s="12">
         <v>3</v>
       </c>
@@ -3262,11 +3265,14 @@
       <c r="C104" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D104" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="D104" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E104" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A105" s="12">
         <v>4</v>
       </c>
@@ -3280,7 +3286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A106" s="12">
         <v>5</v>
       </c>
@@ -3294,7 +3300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A107" s="12">
         <v>6</v>
       </c>
@@ -3308,7 +3314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A108" s="12">
         <v>7</v>
       </c>
@@ -3322,7 +3328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A109" s="12">
         <v>8</v>
       </c>
@@ -3332,11 +3338,11 @@
       <c r="C109" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D109" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="D109" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A110" s="12">
         <v>9</v>
       </c>
@@ -3346,11 +3352,11 @@
       <c r="C110" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D110" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="D110" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A111" s="12">
         <v>10</v>
       </c>
@@ -3364,7 +3370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A112" s="12">
         <v>11</v>
       </c>
@@ -3458,7 +3464,7 @@
       <c r="C118" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D118" s="4" t="s">
+      <c r="D118" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3514,7 +3520,7 @@
       <c r="C122" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D122" s="4" t="s">
+      <c r="D122" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3528,7 +3534,7 @@
       <c r="C123" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D123" s="4" t="s">
+      <c r="D123" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3612,7 +3618,7 @@
       <c r="C129" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D129" s="4" t="s">
+      <c r="D129" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3626,7 +3632,7 @@
       <c r="C130" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D130" s="4" t="s">
+      <c r="D130" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3733,6 +3739,9 @@
       <c r="D139" s="4"/>
     </row>
     <row r="140" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A140" s="12">
+        <v>1</v>
+      </c>
       <c r="B140" s="8" t="s">
         <v>134</v>
       </c>
@@ -3744,6 +3753,9 @@
       </c>
     </row>
     <row r="141" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A141" s="12">
+        <v>2</v>
+      </c>
       <c r="B141" s="8" t="s">
         <v>134</v>
       </c>
@@ -3755,6 +3767,9 @@
       </c>
     </row>
     <row r="142" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A142" s="12">
+        <v>3</v>
+      </c>
       <c r="B142" s="8" t="s">
         <v>134</v>
       </c>
@@ -3766,6 +3781,9 @@
       </c>
     </row>
     <row r="143" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A143" s="12">
+        <v>4</v>
+      </c>
       <c r="B143" s="8" t="s">
         <v>134</v>
       </c>
@@ -3777,6 +3795,9 @@
       </c>
     </row>
     <row r="144" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A144" s="12">
+        <v>5</v>
+      </c>
       <c r="B144" s="8" t="s">
         <v>134</v>
       </c>
@@ -3787,7 +3808,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A145" s="12">
+        <v>6</v>
+      </c>
       <c r="B145" s="8" t="s">
         <v>134</v>
       </c>
@@ -3798,7 +3822,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A146" s="12">
+        <v>7</v>
+      </c>
       <c r="B146" s="8" t="s">
         <v>134</v>
       </c>
@@ -3809,7 +3836,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A147" s="12">
+        <v>8</v>
+      </c>
       <c r="B147" s="8" t="s">
         <v>134</v>
       </c>
@@ -3820,7 +3850,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A148" s="12">
+        <v>9</v>
+      </c>
       <c r="B148" s="8" t="s">
         <v>134</v>
       </c>
@@ -3831,7 +3864,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A149" s="12">
+        <v>10</v>
+      </c>
       <c r="B149" s="8" t="s">
         <v>134</v>
       </c>
@@ -3842,7 +3878,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A150" s="12">
+        <v>11</v>
+      </c>
       <c r="B150" s="8" t="s">
         <v>134</v>
       </c>
@@ -3853,7 +3892,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A151" s="12">
+        <v>12</v>
+      </c>
       <c r="B151" s="8" t="s">
         <v>134</v>
       </c>
@@ -3864,7 +3906,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A152" s="12">
+        <v>13</v>
+      </c>
       <c r="B152" s="8" t="s">
         <v>134</v>
       </c>
@@ -3875,7 +3920,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A153" s="12">
+        <v>14</v>
+      </c>
       <c r="B153" s="8" t="s">
         <v>134</v>
       </c>
@@ -3886,7 +3934,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A154" s="12">
+        <v>15</v>
+      </c>
       <c r="B154" s="8" t="s">
         <v>134</v>
       </c>
@@ -3897,7 +3948,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A155" s="12">
+        <v>16</v>
+      </c>
       <c r="B155" s="8" t="s">
         <v>134</v>
       </c>
@@ -3908,7 +3962,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A156" s="12">
+        <v>17</v>
+      </c>
       <c r="B156" s="8" t="s">
         <v>134</v>
       </c>
@@ -3919,7 +3976,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A157" s="12">
+        <v>18</v>
+      </c>
       <c r="B157" s="8" t="s">
         <v>134</v>
       </c>
@@ -3930,7 +3990,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A158" s="12">
+        <v>19</v>
+      </c>
       <c r="B158" s="8" t="s">
         <v>134</v>
       </c>
@@ -3941,7 +4004,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A159" s="12">
+        <v>20</v>
+      </c>
       <c r="B159" s="8" t="s">
         <v>134</v>
       </c>
@@ -3952,7 +4018,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A160" s="12">
+        <v>21</v>
+      </c>
       <c r="B160" s="8" t="s">
         <v>134</v>
       </c>
@@ -3963,7 +4032,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A161" s="12">
+        <v>22</v>
+      </c>
       <c r="B161" s="8" t="s">
         <v>134</v>
       </c>
@@ -3974,7 +4046,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A162" s="12">
+        <v>23</v>
+      </c>
       <c r="B162" s="8" t="s">
         <v>134</v>
       </c>
@@ -3985,7 +4060,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A163" s="12">
+        <v>24</v>
+      </c>
       <c r="B163" s="8" t="s">
         <v>134</v>
       </c>
@@ -3996,7 +4074,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A164" s="12">
+        <v>25</v>
+      </c>
       <c r="B164" s="8" t="s">
         <v>134</v>
       </c>
@@ -4007,7 +4088,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A165" s="12">
+        <v>26</v>
+      </c>
       <c r="B165" s="8" t="s">
         <v>134</v>
       </c>
@@ -4018,7 +4102,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A166" s="12">
+        <v>27</v>
+      </c>
       <c r="B166" s="8" t="s">
         <v>134</v>
       </c>
@@ -4029,7 +4116,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A167" s="12">
+        <v>28</v>
+      </c>
       <c r="B167" s="8" t="s">
         <v>134</v>
       </c>
@@ -4040,7 +4130,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A168" s="12">
+        <v>29</v>
+      </c>
       <c r="B168" s="8" t="s">
         <v>134</v>
       </c>
@@ -4051,7 +4144,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A169" s="12">
+        <v>30</v>
+      </c>
       <c r="B169" s="8" t="s">
         <v>134</v>
       </c>
@@ -4062,7 +4158,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A170" s="12">
+        <v>31</v>
+      </c>
       <c r="B170" s="8" t="s">
         <v>134</v>
       </c>
@@ -4073,7 +4172,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A171" s="12">
+        <v>32</v>
+      </c>
       <c r="B171" s="8" t="s">
         <v>134</v>
       </c>
@@ -4084,7 +4186,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A172" s="12">
+        <v>33</v>
+      </c>
       <c r="B172" s="8" t="s">
         <v>134</v>
       </c>
@@ -4095,7 +4200,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A173" s="12">
+        <v>34</v>
+      </c>
       <c r="B173" s="8" t="s">
         <v>134</v>
       </c>
@@ -4106,7 +4214,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A174" s="12">
+        <v>35</v>
+      </c>
       <c r="B174" s="8" t="s">
         <v>134</v>
       </c>
@@ -4117,7 +4228,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A175" s="12">
+        <v>36</v>
+      </c>
       <c r="B175" s="8" t="s">
         <v>134</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaurav/Documents/30DaysChallenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B8254B-59D5-6B40-A82C-DB56A79628A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA54479F-07A3-6248-97D1-EEDC60B32D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="0" windowWidth="27640" windowHeight="16060" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1899,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="G111" sqref="G111"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="C479" sqref="C479"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -7293,7 +7293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="465" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B465" s="5" t="s">
         <v>393</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="466" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B466" s="5" t="s">
         <v>393</v>
       </c>
@@ -7315,7 +7315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="467" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B467" s="5" t="s">
         <v>393</v>
       </c>
@@ -7326,7 +7326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="468" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B468" s="5" t="s">
         <v>393</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="469" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B469" s="5" t="s">
         <v>393</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="470" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B470" s="5" t="s">
         <v>393</v>
       </c>
@@ -7359,49 +7359,61 @@
         <v>4</v>
       </c>
     </row>
-    <row r="471" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="C471" s="7"/>
       <c r="D471" s="4"/>
     </row>
-    <row r="472" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B472" s="8"/>
       <c r="C472" s="7"/>
       <c r="D472" s="4"/>
     </row>
-    <row r="473" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A473" s="12">
+        <v>1</v>
+      </c>
       <c r="B473" s="5" t="s">
         <v>453</v>
       </c>
       <c r="C473" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="D473" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="474" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="D473" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A474" s="12">
+        <v>2</v>
+      </c>
       <c r="B474" s="5" t="s">
         <v>453</v>
       </c>
       <c r="C474" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="D474" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="475" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="D474" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A475" s="12">
+        <v>3</v>
+      </c>
       <c r="B475" s="5" t="s">
         <v>453</v>
       </c>
       <c r="C475" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="D475" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="476" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="D475" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A476" s="12">
+        <v>4</v>
+      </c>
       <c r="B476" s="5" t="s">
         <v>453</v>
       </c>
@@ -7412,29 +7424,38 @@
         <v>4</v>
       </c>
     </row>
-    <row r="477" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A477" s="12">
+        <v>5</v>
+      </c>
       <c r="B477" s="5" t="s">
         <v>453</v>
       </c>
       <c r="C477" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="D477" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="478" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="D477" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A478" s="12">
+        <v>6</v>
+      </c>
       <c r="B478" s="5" t="s">
         <v>453</v>
       </c>
       <c r="C478" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="D478" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="479" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="D478" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A479" s="12">
+        <v>7</v>
+      </c>
       <c r="B479" s="5" t="s">
         <v>453</v>
       </c>
@@ -7445,7 +7466,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="480" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A480" s="12">
+        <v>8</v>
+      </c>
       <c r="B480" s="5" t="s">
         <v>453</v>
       </c>
@@ -7456,7 +7480,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="481" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A481" s="12">
+        <v>9</v>
+      </c>
       <c r="B481" s="5" t="s">
         <v>453</v>
       </c>
@@ -7467,7 +7494,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="482" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A482" s="12">
+        <v>10</v>
+      </c>
       <c r="B482" s="5" t="s">
         <v>453</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaurav/Documents/30DaysChallenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA54479F-07A3-6248-97D1-EEDC60B32D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753F201D-44B2-1C42-B124-73D8B419BBDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="0" windowWidth="27640" windowHeight="16060" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1899,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="C479" sqref="C479"/>
+    <sheetView tabSelected="1" topLeftCell="A451" zoomScale="97" workbookViewId="0">
+      <selection activeCell="G470" sqref="G470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -7420,7 +7420,7 @@
       <c r="C476" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="D476" s="4" t="s">
+      <c r="D476" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7462,7 +7462,7 @@
       <c r="C479" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="D479" s="4" t="s">
+      <c r="D479" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7476,7 +7476,7 @@
       <c r="C480" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="D480" s="4" t="s">
+      <c r="D480" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7490,7 +7490,7 @@
       <c r="C481" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="D481" s="4" t="s">
+      <c r="D481" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7504,7 +7504,7 @@
       <c r="C482" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="D482" s="4" t="s">
+      <c r="D482" s="11" t="s">
         <v>4</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaurav/Documents/30DaysChallenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753F201D-44B2-1C42-B124-73D8B419BBDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3151C07A-6969-1D4D-B929-001D4C33E6D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="0" windowWidth="27640" windowHeight="16060" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="469">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1435,6 +1435,9 @@
   </si>
   <si>
     <t>////</t>
+  </si>
+  <si>
+    <t>….</t>
   </si>
 </sst>
 </file>
@@ -1899,8 +1902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A451" zoomScale="97" workbookViewId="0">
-      <selection activeCell="G470" sqref="G470"/>
+    <sheetView tabSelected="1" topLeftCell="A158" zoomScale="97" workbookViewId="0">
+      <selection activeCell="B168" sqref="B168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -3748,7 +3751,7 @@
       <c r="C140" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D140" s="4" t="s">
+      <c r="D140" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3762,7 +3765,7 @@
       <c r="C141" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D141" s="4" t="s">
+      <c r="D141" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3776,7 +3779,7 @@
       <c r="C142" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D142" s="4" t="s">
+      <c r="D142" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3790,7 +3793,7 @@
       <c r="C143" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D143" s="4" t="s">
+      <c r="D143" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3804,11 +3807,11 @@
       <c r="C144" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D144" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="D144" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A145" s="12">
         <v>6</v>
       </c>
@@ -3818,11 +3821,11 @@
       <c r="C145" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D145" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="D145" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A146" s="12">
         <v>7</v>
       </c>
@@ -3835,8 +3838,11 @@
       <c r="D146" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="E146" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A147" s="12">
         <v>8</v>
       </c>
@@ -3846,11 +3852,11 @@
       <c r="C147" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D147" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="D147" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A148" s="12">
         <v>9</v>
       </c>
@@ -3860,11 +3866,11 @@
       <c r="C148" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D148" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="D148" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A149" s="12">
         <v>10</v>
       </c>
@@ -3874,11 +3880,11 @@
       <c r="C149" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D149" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="D149" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A150" s="12">
         <v>11</v>
       </c>
@@ -3888,11 +3894,11 @@
       <c r="C150" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D150" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="D150" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A151" s="12">
         <v>12</v>
       </c>
@@ -3902,11 +3908,11 @@
       <c r="C151" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D151" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="D151" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A152" s="12">
         <v>13</v>
       </c>
@@ -3920,7 +3926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A153" s="12">
         <v>14</v>
       </c>
@@ -3934,7 +3940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A154" s="12">
         <v>15</v>
       </c>
@@ -3944,11 +3950,11 @@
       <c r="C154" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="D154" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="D154" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A155" s="12">
         <v>16</v>
       </c>
@@ -3958,11 +3964,11 @@
       <c r="C155" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D155" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="D155" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A156" s="12">
         <v>17</v>
       </c>
@@ -3975,8 +3981,11 @@
       <c r="D156" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="E156" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A157" s="12">
         <v>18</v>
       </c>
@@ -3986,11 +3995,11 @@
       <c r="C157" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D157" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="D157" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A158" s="12">
         <v>19</v>
       </c>
@@ -4000,11 +4009,11 @@
       <c r="C158" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D158" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="D158" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A159" s="12">
         <v>20</v>
       </c>
@@ -4017,8 +4026,11 @@
       <c r="D159" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="E159" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A160" s="12">
         <v>21</v>
       </c>
@@ -4028,7 +4040,7 @@
       <c r="C160" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D160" s="4" t="s">
+      <c r="D160" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4042,7 +4054,7 @@
       <c r="C161" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D161" s="4" t="s">
+      <c r="D161" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4070,7 +4082,7 @@
       <c r="C163" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="D163" s="4" t="s">
+      <c r="D163" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4140,7 +4152,7 @@
       <c r="C168" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D168" s="4" t="s">
+      <c r="D168" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4196,7 +4208,7 @@
       <c r="C172" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="D172" s="4" t="s">
+      <c r="D172" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4210,7 +4222,7 @@
       <c r="C173" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="D173" s="4" t="s">
+      <c r="D173" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4224,7 +4236,7 @@
       <c r="C174" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D174" s="4" t="s">
+      <c r="D174" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4242,11 +4254,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="C177" s="7"/>
       <c r="D177" s="4"/>
     </row>
-    <row r="178" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A178" s="12">
+        <v>1</v>
+      </c>
       <c r="B178" s="5" t="s">
         <v>171</v>
       </c>
@@ -4257,7 +4272,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A179" s="12">
+        <v>2</v>
+      </c>
       <c r="B179" s="5" t="s">
         <v>171</v>
       </c>
@@ -4268,7 +4286,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A180" s="12">
+        <v>3</v>
+      </c>
       <c r="B180" s="5" t="s">
         <v>171</v>
       </c>
@@ -4279,7 +4300,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A181" s="12">
+        <v>4</v>
+      </c>
       <c r="B181" s="5" t="s">
         <v>171</v>
       </c>
@@ -4290,7 +4314,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A182" s="12">
+        <v>5</v>
+      </c>
       <c r="B182" s="5" t="s">
         <v>171</v>
       </c>
@@ -4301,7 +4328,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A183" s="12">
+        <v>6</v>
+      </c>
       <c r="B183" s="5" t="s">
         <v>171</v>
       </c>
@@ -4312,7 +4342,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A184" s="12">
+        <v>7</v>
+      </c>
       <c r="B184" s="5" t="s">
         <v>171</v>
       </c>
@@ -4323,7 +4356,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A185" s="12">
+        <v>8</v>
+      </c>
       <c r="B185" s="5" t="s">
         <v>171</v>
       </c>
@@ -4334,7 +4370,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A186" s="12">
+        <v>9</v>
+      </c>
       <c r="B186" s="5" t="s">
         <v>171</v>
       </c>
@@ -4345,7 +4384,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A187" s="12">
+        <v>10</v>
+      </c>
       <c r="B187" s="5" t="s">
         <v>171</v>
       </c>
@@ -4356,7 +4398,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A188" s="12">
+        <v>11</v>
+      </c>
       <c r="B188" s="5" t="s">
         <v>171</v>
       </c>
@@ -4367,7 +4412,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A189" s="12">
+        <v>12</v>
+      </c>
       <c r="B189" s="5" t="s">
         <v>171</v>
       </c>
@@ -4378,7 +4426,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A190" s="12">
+        <v>13</v>
+      </c>
       <c r="B190" s="5" t="s">
         <v>171</v>
       </c>
@@ -4389,7 +4440,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A191" s="12">
+        <v>14</v>
+      </c>
       <c r="B191" s="5" t="s">
         <v>171</v>
       </c>
@@ -4400,7 +4454,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A192" s="12">
+        <v>15</v>
+      </c>
       <c r="B192" s="5" t="s">
         <v>171</v>
       </c>
@@ -4411,7 +4468,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A193" s="12">
+        <v>16</v>
+      </c>
       <c r="B193" s="5" t="s">
         <v>171</v>
       </c>
@@ -4422,7 +4482,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A194" s="12">
+        <v>17</v>
+      </c>
       <c r="B194" s="5" t="s">
         <v>171</v>
       </c>
@@ -4433,7 +4496,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A195" s="12">
+        <v>18</v>
+      </c>
       <c r="B195" s="5" t="s">
         <v>171</v>
       </c>
@@ -4444,7 +4510,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A196" s="12">
+        <v>19</v>
+      </c>
       <c r="B196" s="5" t="s">
         <v>171</v>
       </c>
@@ -4455,7 +4524,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A197" s="12">
+        <v>20</v>
+      </c>
       <c r="B197" s="5" t="s">
         <v>171</v>
       </c>
@@ -4466,7 +4538,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A198" s="12">
+        <v>21</v>
+      </c>
       <c r="B198" s="5" t="s">
         <v>171</v>
       </c>
@@ -4477,7 +4552,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A199" s="12">
+        <v>22</v>
+      </c>
       <c r="B199" s="5" t="s">
         <v>171</v>
       </c>
@@ -4488,7 +4566,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A200" s="12">
+        <v>23</v>
+      </c>
       <c r="B200" s="5" t="s">
         <v>171</v>
       </c>
@@ -4499,7 +4580,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A201" s="12">
+        <v>24</v>
+      </c>
       <c r="B201" s="5" t="s">
         <v>171</v>
       </c>
@@ -4510,7 +4594,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A202" s="12">
+        <v>25</v>
+      </c>
       <c r="B202" s="5" t="s">
         <v>171</v>
       </c>
@@ -4521,7 +4608,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A203" s="12">
+        <v>26</v>
+      </c>
       <c r="B203" s="5" t="s">
         <v>171</v>
       </c>
@@ -4532,7 +4622,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A204" s="12">
+        <v>27</v>
+      </c>
       <c r="B204" s="5" t="s">
         <v>171</v>
       </c>
@@ -4543,7 +4636,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A205" s="12">
+        <v>28</v>
+      </c>
       <c r="B205" s="5" t="s">
         <v>171</v>
       </c>
@@ -4554,7 +4650,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A206" s="12">
+        <v>29</v>
+      </c>
       <c r="B206" s="5" t="s">
         <v>171</v>
       </c>
@@ -4565,7 +4664,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A207" s="12">
+        <v>30</v>
+      </c>
       <c r="B207" s="5" t="s">
         <v>171</v>
       </c>
@@ -4576,7 +4678,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A208" s="12">
+        <v>31</v>
+      </c>
       <c r="B208" s="5" t="s">
         <v>171</v>
       </c>
@@ -4587,7 +4692,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A209" s="12">
+        <v>32</v>
+      </c>
       <c r="B209" s="5" t="s">
         <v>171</v>
       </c>
@@ -4598,7 +4706,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A210" s="12">
+        <v>33</v>
+      </c>
       <c r="B210" s="5" t="s">
         <v>171</v>
       </c>
@@ -4609,7 +4720,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A211" s="12">
+        <v>34</v>
+      </c>
       <c r="B211" s="5" t="s">
         <v>171</v>
       </c>
@@ -4620,7 +4734,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A212" s="12">
+        <v>35</v>
+      </c>
       <c r="B212" s="5" t="s">
         <v>171</v>
       </c>
@@ -4631,17 +4748,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B213" s="8"/>
       <c r="C213" s="7"/>
       <c r="D213" s="4"/>
     </row>
-    <row r="214" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B214" s="8"/>
       <c r="C214" s="7"/>
       <c r="D214" s="4"/>
     </row>
-    <row r="215" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B215" s="5" t="s">
         <v>207</v>
       </c>
@@ -4652,7 +4769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B216" s="5" t="s">
         <v>207</v>
       </c>
@@ -4663,7 +4780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B217" s="5" t="s">
         <v>207</v>
       </c>
@@ -4674,7 +4791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B218" s="5" t="s">
         <v>207</v>
       </c>
@@ -4685,7 +4802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B219" s="5" t="s">
         <v>207</v>
       </c>
@@ -4696,7 +4813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B220" s="5" t="s">
         <v>207</v>
       </c>
@@ -4707,7 +4824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B221" s="5" t="s">
         <v>207</v>
       </c>
@@ -4718,7 +4835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B222" s="5" t="s">
         <v>207</v>
       </c>
@@ -4729,7 +4846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B223" s="5" t="s">
         <v>207</v>
       </c>
@@ -4740,7 +4857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B224" s="5" t="s">
         <v>207</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaurav/Documents/30DaysChallenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3151C07A-6969-1D4D-B929-001D4C33E6D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5659F3-236B-FF47-83A6-3818C86D2B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="0" windowWidth="27640" windowHeight="16060" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1902,8 +1902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" zoomScale="97" workbookViewId="0">
-      <selection activeCell="B168" sqref="B168"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="97" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -3008,7 +3008,7 @@
       <c r="C84" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="D84" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E84" s="15" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaurav/Documents/30DaysChallenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5659F3-236B-FF47-83A6-3818C86D2B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77ECAD8C-8B03-A145-B159-39B97A78DCFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="0" windowWidth="27640" windowHeight="16060" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="470">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1438,6 +1438,9 @@
   </si>
   <si>
     <t>….</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;-&gt; </t>
   </si>
 </sst>
 </file>
@@ -1521,7 +1524,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1540,6 +1543,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1554,7 +1563,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1585,6 +1594,9 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1902,8 +1914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="97" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="97" workbookViewId="0">
+      <selection activeCell="C183" sqref="C183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -3025,7 +3037,7 @@
       <c r="C85" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D85" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3039,7 +3051,7 @@
       <c r="C86" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D86" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3053,8 +3065,8 @@
       <c r="C87" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D87" s="4" t="s">
-        <v>4</v>
+      <c r="D87" s="16" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -4268,7 +4280,7 @@
       <c r="C178" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D178" s="4" t="s">
+      <c r="D178" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4282,7 +4294,7 @@
       <c r="C179" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="D179" s="4" t="s">
+      <c r="D179" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4296,7 +4308,7 @@
       <c r="C180" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D180" s="4" t="s">
+      <c r="D180" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4324,7 +4336,7 @@
       <c r="C182" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="D182" s="4" t="s">
+      <c r="D182" s="11" t="s">
         <v>4</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaurav/Documents/30DaysChallenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77ECAD8C-8B03-A145-B159-39B97A78DCFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3224A992-6E62-8D4D-A9C3-116ADE26E4C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="0" windowWidth="27640" windowHeight="16060" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="471">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1441,6 +1441,9 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;-&gt; </t>
+  </si>
+  <si>
+    <t>start</t>
   </si>
 </sst>
 </file>
@@ -1914,8 +1917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="97" workbookViewId="0">
-      <selection activeCell="C183" sqref="C183"/>
+    <sheetView tabSelected="1" topLeftCell="A285" zoomScale="97" workbookViewId="0">
+      <selection activeCell="C304" sqref="C304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -4266,11 +4269,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="C177" s="7"/>
       <c r="D177" s="4"/>
     </row>
-    <row r="178" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A178" s="12">
         <v>1</v>
       </c>
@@ -4284,7 +4287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A179" s="12">
         <v>2</v>
       </c>
@@ -4298,7 +4301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A180" s="12">
         <v>3</v>
       </c>
@@ -4312,7 +4315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A181" s="12">
         <v>4</v>
       </c>
@@ -4326,7 +4329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A182" s="12">
         <v>5</v>
       </c>
@@ -4340,7 +4343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A183" s="12">
         <v>6</v>
       </c>
@@ -4350,11 +4353,14 @@
       <c r="C183" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D183" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="D183" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E183" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A184" s="12">
         <v>7</v>
       </c>
@@ -4364,11 +4370,11 @@
       <c r="C184" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="D184" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="D184" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A185" s="12">
         <v>8</v>
       </c>
@@ -4378,11 +4384,11 @@
       <c r="C185" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D185" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="D185" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A186" s="12">
         <v>9</v>
       </c>
@@ -4392,11 +4398,11 @@
       <c r="C186" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D186" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="D186" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A187" s="12">
         <v>10</v>
       </c>
@@ -4406,11 +4412,11 @@
       <c r="C187" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="D187" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="D187" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A188" s="12">
         <v>11</v>
       </c>
@@ -4424,7 +4430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A189" s="12">
         <v>12</v>
       </c>
@@ -4438,7 +4444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A190" s="12">
         <v>13</v>
       </c>
@@ -4452,7 +4458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A191" s="12">
         <v>14</v>
       </c>
@@ -4466,7 +4472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A192" s="12">
         <v>15</v>
       </c>
@@ -5556,7 +5562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B289" s="5" t="s">
         <v>265</v>
       </c>
@@ -5567,7 +5573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B290" s="5" t="s">
         <v>265</v>
       </c>
@@ -5578,7 +5584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B291" s="5" t="s">
         <v>265</v>
       </c>
@@ -5589,7 +5595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B292" s="5" t="s">
         <v>265</v>
       </c>
@@ -5600,7 +5606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B293" s="5" t="s">
         <v>265</v>
       </c>
@@ -5611,7 +5617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B294" s="5" t="s">
         <v>265</v>
       </c>
@@ -5622,59 +5628,74 @@
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="C295" s="7"/>
       <c r="D295" s="4"/>
     </row>
-    <row r="296" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="C296" s="7"/>
       <c r="D296" s="4"/>
     </row>
-    <row r="297" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A297" s="12">
+        <v>1</v>
+      </c>
       <c r="B297" s="5" t="s">
         <v>285</v>
       </c>
       <c r="C297" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="D297" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="298" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="D297" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A298" s="12">
+        <v>2</v>
+      </c>
       <c r="B298" s="5" t="s">
         <v>285</v>
       </c>
       <c r="C298" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="D298" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="299" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="D298" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A299" s="12">
+        <v>3</v>
+      </c>
       <c r="B299" s="5" t="s">
         <v>285</v>
       </c>
       <c r="C299" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="D299" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="300" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="D299" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A300" s="12">
+        <v>4</v>
+      </c>
       <c r="B300" s="5" t="s">
         <v>285</v>
       </c>
       <c r="C300" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="D300" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="301" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="D300" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A301" s="12">
+        <v>5</v>
+      </c>
       <c r="B301" s="5" t="s">
         <v>285</v>
       </c>
@@ -5685,29 +5706,38 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A302" s="12">
+        <v>6</v>
+      </c>
       <c r="B302" s="5" t="s">
         <v>285</v>
       </c>
       <c r="C302" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="D302" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="303" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="D302" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A303" s="12">
+        <v>7</v>
+      </c>
       <c r="B303" s="5" t="s">
         <v>285</v>
       </c>
       <c r="C303" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="D303" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="304" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="D303" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A304" s="12">
+        <v>8</v>
+      </c>
       <c r="B304" s="5" t="s">
         <v>285</v>
       </c>
@@ -5718,7 +5748,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A305" s="12">
+        <v>9</v>
+      </c>
       <c r="B305" s="5" t="s">
         <v>285</v>
       </c>
@@ -5729,7 +5762,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A306" s="12">
+        <v>10</v>
+      </c>
       <c r="B306" s="5" t="s">
         <v>285</v>
       </c>
@@ -5740,7 +5776,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A307" s="12">
+        <v>11</v>
+      </c>
       <c r="B307" s="5" t="s">
         <v>285</v>
       </c>
@@ -5751,7 +5790,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A308" s="12">
+        <v>12</v>
+      </c>
       <c r="B308" s="5" t="s">
         <v>285</v>
       </c>
@@ -5762,7 +5804,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A309" s="12">
+        <v>13</v>
+      </c>
       <c r="B309" s="5" t="s">
         <v>285</v>
       </c>
@@ -5773,7 +5818,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A310" s="12">
+        <v>14</v>
+      </c>
       <c r="B310" s="5" t="s">
         <v>285</v>
       </c>
@@ -5784,7 +5832,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A311" s="12">
+        <v>15</v>
+      </c>
       <c r="B311" s="5" t="s">
         <v>285</v>
       </c>
@@ -5795,7 +5846,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A312" s="12">
+        <v>16</v>
+      </c>
       <c r="B312" s="5" t="s">
         <v>285</v>
       </c>
@@ -5806,7 +5860,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A313" s="12">
+        <v>17</v>
+      </c>
       <c r="B313" s="5" t="s">
         <v>285</v>
       </c>
@@ -5817,7 +5874,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="314" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A314" s="12">
+        <v>18</v>
+      </c>
       <c r="B314" s="5" t="s">
         <v>285</v>
       </c>
@@ -5828,7 +5888,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="315" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A315" s="12">
+        <v>19</v>
+      </c>
       <c r="B315" s="5" t="s">
         <v>285</v>
       </c>
@@ -5839,7 +5902,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A316" s="12">
+        <v>20</v>
+      </c>
       <c r="B316" s="5" t="s">
         <v>285</v>
       </c>
@@ -5850,7 +5916,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A317" s="12">
+        <v>21</v>
+      </c>
       <c r="B317" s="5" t="s">
         <v>285</v>
       </c>
@@ -5861,7 +5930,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A318" s="12">
+        <v>22</v>
+      </c>
       <c r="B318" s="5" t="s">
         <v>285</v>
       </c>
@@ -5872,7 +5944,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A319" s="12">
+        <v>23</v>
+      </c>
       <c r="B319" s="5" t="s">
         <v>285</v>
       </c>
@@ -5883,7 +5958,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A320" s="12">
+        <v>24</v>
+      </c>
       <c r="B320" s="5" t="s">
         <v>285</v>
       </c>
@@ -5894,7 +5972,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="321" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A321" s="12">
+        <v>25</v>
+      </c>
       <c r="B321" s="5" t="s">
         <v>285</v>
       </c>
@@ -5905,7 +5986,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A322" s="12">
+        <v>26</v>
+      </c>
       <c r="B322" s="5" t="s">
         <v>285</v>
       </c>
@@ -5916,7 +6000,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A323" s="12">
+        <v>27</v>
+      </c>
       <c r="B323" s="5" t="s">
         <v>285</v>
       </c>
@@ -5927,7 +6014,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A324" s="12">
+        <v>28</v>
+      </c>
       <c r="B324" s="5" t="s">
         <v>285</v>
       </c>
@@ -5938,7 +6028,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A325" s="12">
+        <v>29</v>
+      </c>
       <c r="B325" s="5" t="s">
         <v>285</v>
       </c>
@@ -5949,7 +6042,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A326" s="12">
+        <v>30</v>
+      </c>
       <c r="B326" s="5" t="s">
         <v>285</v>
       </c>
@@ -5960,7 +6056,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A327" s="12">
+        <v>31</v>
+      </c>
       <c r="B327" s="5" t="s">
         <v>285</v>
       </c>
@@ -5971,7 +6070,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="328" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A328" s="12">
+        <v>32</v>
+      </c>
       <c r="B328" s="5" t="s">
         <v>285</v>
       </c>
@@ -5982,7 +6084,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="329" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A329" s="12">
+        <v>33</v>
+      </c>
       <c r="B329" s="5" t="s">
         <v>285</v>
       </c>
@@ -5993,7 +6098,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A330" s="12">
+        <v>34</v>
+      </c>
       <c r="B330" s="5" t="s">
         <v>285</v>
       </c>
@@ -6004,7 +6112,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A331" s="12">
+        <v>35</v>
+      </c>
       <c r="B331" s="5" t="s">
         <v>285</v>
       </c>
@@ -6015,7 +6126,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A332" s="12">
+        <v>36</v>
+      </c>
       <c r="B332" s="5" t="s">
         <v>285</v>
       </c>
@@ -6026,7 +6140,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A333" s="12">
+        <v>37</v>
+      </c>
       <c r="B333" s="5" t="s">
         <v>285</v>
       </c>
@@ -6037,7 +6154,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A334" s="12">
+        <v>38</v>
+      </c>
       <c r="B334" s="5" t="s">
         <v>285</v>
       </c>
@@ -6048,15 +6168,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="335" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="C335" s="7"/>
       <c r="D335" s="4"/>
     </row>
-    <row r="336" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="C336" s="7"/>
       <c r="D336" s="4"/>
     </row>
-    <row r="337" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A337" s="12">
+        <v>1</v>
+      </c>
       <c r="B337" s="8" t="s">
         <v>324</v>
       </c>
@@ -6067,7 +6190,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A338" s="12">
+        <v>2</v>
+      </c>
       <c r="B338" s="8" t="s">
         <v>324</v>
       </c>
@@ -6078,7 +6204,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="339" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A339" s="12">
+        <v>3</v>
+      </c>
       <c r="B339" s="8" t="s">
         <v>324</v>
       </c>
@@ -6089,7 +6218,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A340" s="12">
+        <v>4</v>
+      </c>
       <c r="B340" s="8" t="s">
         <v>324</v>
       </c>
@@ -6100,7 +6232,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A341" s="12">
+        <v>5</v>
+      </c>
       <c r="B341" s="8" t="s">
         <v>324</v>
       </c>
@@ -6111,7 +6246,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A342" s="12">
+        <v>6</v>
+      </c>
       <c r="B342" s="8" t="s">
         <v>324</v>
       </c>
@@ -6122,7 +6260,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="343" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A343" s="12">
+        <v>7</v>
+      </c>
       <c r="B343" s="8" t="s">
         <v>324</v>
       </c>
@@ -6133,7 +6274,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A344" s="12">
+        <v>8</v>
+      </c>
       <c r="B344" s="8" t="s">
         <v>324</v>
       </c>
@@ -6144,7 +6288,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="345" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A345" s="12">
+        <v>9</v>
+      </c>
       <c r="B345" s="8" t="s">
         <v>324</v>
       </c>
@@ -6155,7 +6302,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="346" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A346" s="12">
+        <v>10</v>
+      </c>
       <c r="B346" s="8" t="s">
         <v>324</v>
       </c>
@@ -6166,7 +6316,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A347" s="12">
+        <v>11</v>
+      </c>
       <c r="B347" s="8" t="s">
         <v>324</v>
       </c>
@@ -6177,7 +6330,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="348" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A348" s="12">
+        <v>12</v>
+      </c>
       <c r="B348" s="8" t="s">
         <v>324</v>
       </c>
@@ -6188,7 +6344,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A349" s="12">
+        <v>13</v>
+      </c>
       <c r="B349" s="8" t="s">
         <v>324</v>
       </c>
@@ -6199,7 +6358,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="350" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A350" s="12">
+        <v>14</v>
+      </c>
       <c r="B350" s="8" t="s">
         <v>324</v>
       </c>
@@ -6210,7 +6372,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="351" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A351" s="12">
+        <v>15</v>
+      </c>
       <c r="B351" s="8" t="s">
         <v>324</v>
       </c>
@@ -6221,7 +6386,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A352" s="12">
+        <v>16</v>
+      </c>
       <c r="B352" s="8" t="s">
         <v>324</v>
       </c>
@@ -6232,7 +6400,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A353" s="12">
+        <v>17</v>
+      </c>
       <c r="B353" s="8" t="s">
         <v>324</v>
       </c>
@@ -6243,7 +6414,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A354" s="12">
+        <v>18</v>
+      </c>
       <c r="B354" s="8" t="s">
         <v>324</v>
       </c>
@@ -6254,15 +6428,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="355" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="C355" s="7"/>
       <c r="D355" s="4"/>
     </row>
-    <row r="356" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="C356" s="7"/>
       <c r="D356" s="4"/>
     </row>
-    <row r="357" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B357" s="8" t="s">
         <v>343</v>
       </c>
@@ -6273,7 +6447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="358" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B358" s="8" t="s">
         <v>343</v>
       </c>
@@ -6284,7 +6458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="359" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B359" s="8" t="s">
         <v>343</v>
       </c>
@@ -6295,7 +6469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="360" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B360" s="8" t="s">
         <v>343</v>
       </c>
@@ -6306,7 +6480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="361" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B361" s="8" t="s">
         <v>343</v>
       </c>
@@ -6317,7 +6491,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B362" s="8" t="s">
         <v>343</v>
       </c>
@@ -6328,7 +6502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="363" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B363" s="8" t="s">
         <v>343</v>
       </c>
@@ -6339,7 +6513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B364" s="8" t="s">
         <v>343</v>
       </c>
@@ -6350,7 +6524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B365" s="8" t="s">
         <v>343</v>
       </c>
@@ -6361,7 +6535,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="366" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B366" s="8" t="s">
         <v>343</v>
       </c>
@@ -6372,7 +6546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B367" s="8" t="s">
         <v>343</v>
       </c>
@@ -6383,7 +6557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="368" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B368" s="8" t="s">
         <v>343</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaurav/Documents/30DaysChallenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3224A992-6E62-8D4D-A9C3-116ADE26E4C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59400FD8-CBB9-C743-9C79-769074846FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="0" windowWidth="27640" windowHeight="16060" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="472">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1444,6 +1444,9 @@
   </si>
   <si>
     <t>start</t>
+  </si>
+  <si>
+    <t>TOTAL - 15.      ME-7</t>
   </si>
 </sst>
 </file>
@@ -1917,8 +1920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A285" zoomScale="97" workbookViewId="0">
-      <selection activeCell="C304" sqref="C304"/>
+    <sheetView tabSelected="1" topLeftCell="A459" zoomScale="97" workbookViewId="0">
+      <selection activeCell="C461" sqref="C461"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1939,6 +1942,11 @@
         <v>464</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>471</v>
+      </c>
+    </row>
     <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -5758,7 +5766,7 @@
       <c r="C305" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="D305" s="4" t="s">
+      <c r="D305" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5772,7 +5780,7 @@
       <c r="C306" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="D306" s="4" t="s">
+      <c r="D306" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5786,7 +5794,7 @@
       <c r="C307" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="D307" s="4" t="s">
+      <c r="D307" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5800,7 +5808,7 @@
       <c r="C308" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="D308" s="4" t="s">
+      <c r="D308" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5814,7 +5822,7 @@
       <c r="C309" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="D309" s="4" t="s">
+      <c r="D309" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5856,7 +5864,7 @@
       <c r="C312" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="D312" s="4" t="s">
+      <c r="D312" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5898,7 +5906,7 @@
       <c r="C315" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="D315" s="4" t="s">
+      <c r="D315" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5912,7 +5920,7 @@
       <c r="C316" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="D316" s="4" t="s">
+      <c r="D316" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5926,7 +5934,7 @@
       <c r="C317" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="D317" s="4" t="s">
+      <c r="D317" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5940,7 +5948,7 @@
       <c r="C318" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="D318" s="4" t="s">
+      <c r="D318" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5954,7 +5962,7 @@
       <c r="C319" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="D319" s="4" t="s">
+      <c r="D319" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6010,7 +6018,7 @@
       <c r="C323" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="D323" s="4" t="s">
+      <c r="D323" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6024,7 +6032,7 @@
       <c r="C324" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="D324" s="4" t="s">
+      <c r="D324" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6038,7 +6046,7 @@
       <c r="C325" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="D325" s="4" t="s">
+      <c r="D325" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6094,7 +6102,7 @@
       <c r="C329" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="D329" s="4" t="s">
+      <c r="D329" s="11" t="s">
         <v>4</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaurav/Documents/30DaysChallenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59400FD8-CBB9-C743-9C79-769074846FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB944A8-676C-9B4A-9D1D-0386C11B8901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="0" windowWidth="27640" windowHeight="16060" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1530,7 +1530,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1555,6 +1555,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1569,7 +1575,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1601,6 +1607,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1920,8 +1929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A459" zoomScale="97" workbookViewId="0">
-      <selection activeCell="C461" sqref="C461"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2184,7 +2193,7 @@
       <c r="C21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="17" t="s">
         <v>4</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaurav/Documents/30DaysChallenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB944A8-676C-9B4A-9D1D-0386C11B8901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBF1B55-92B2-6A44-BEAA-6AC896BBA775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="0" windowWidth="27640" windowHeight="16060" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="472">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1575,7 +1575,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1612,6 +1612,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1929,8 +1930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="75" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="75" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2351,7 +2352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>28</v>
       </c>
@@ -2361,11 +2362,11 @@
       <c r="C33" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="D33" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>29</v>
       </c>
@@ -2379,7 +2380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>30</v>
       </c>
@@ -2393,7 +2394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>31</v>
       </c>
@@ -2407,7 +2408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>32</v>
       </c>
@@ -2417,11 +2418,14 @@
       <c r="C37" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="D37" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>33</v>
       </c>
@@ -2435,7 +2439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>34</v>
       </c>
@@ -2449,7 +2453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>35</v>
       </c>
@@ -2463,7 +2467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>36</v>
       </c>
@@ -2477,20 +2481,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="C42" s="7"/>
       <c r="D42" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
       <c r="C43" s="7"/>
       <c r="D43" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <v>1</v>
       </c>
@@ -2504,7 +2508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
         <v>2</v>
       </c>
@@ -2518,7 +2522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
         <v>3</v>
       </c>
@@ -2532,7 +2536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <v>4</v>
       </c>
@@ -2546,7 +2550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
         <v>5</v>
       </c>
@@ -2749,6 +2753,7 @@
       <c r="D63" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="E63" s="18"/>
     </row>
     <row r="64" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A64" s="12">
